--- a/ICCAT MSE Web TEXT_read.xlsx
+++ b/ICCAT MSE Web TEXT_read.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ai Kimoto\Documents\GitHub\iccat-mse-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0E586-A543-4FD5-AE3B-842601002377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F528C6B1-5467-4A87-927E-C5362DF8B8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{5C114945-3E0B-447D-AC77-4B3099D58B0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="9" xr2:uid="{5C114945-3E0B-447D-AC77-4B3099D58B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="multiTT" sheetId="6" r:id="rId7"/>
     <sheet name="other" sheetId="8" r:id="rId8"/>
     <sheet name="references" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,8 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ai Kimoto</author>
+  </authors>
+  <commentList>
+    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{5A439187-AC11-4861-AF45-A3B13C4A4F80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ai Kimoto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+added</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="863">
   <si>
     <t>Page</t>
   </si>
@@ -1912,12 +1947,6 @@
 Blue Shark (PA4-823): The SCRS shall inform the Commission by 2025 on the feasibility, cost, and options for developing a Management Strategy Evaluation (MSE) framework.</t>
   </si>
   <si>
-    <t>Although a formal Management Strategy Evaluation (MSE) process has not been established, closed-loop simulation techniques have been applied to evaluate the implications of various data and assessment model configurations on the performance of candidate management procedures for Northeast Atlantic porbeagle shark. In the absence of a consistent time series of relative abundance for the stock, such simulation-based analyses are particularly valuable for exploring alternative assessment and management approaches.
-Preliminary MSE work for Northeast Atlantic porbeagle has focused on simulation testing, the definition of operational objectives, and the influence of data availability on yield and conservation performance. Initial simulations, presented in SCRS/2022/090, applied closed-loop testing to a range of simple empirical management procedures. These early trials revealed that management performance varied considerably across candidate procedures, particularly with respect to yield and the risk of stock depletion. The analyses followed the structured MSE framework outlined by Punt et al. (2016), incorporating operating model specification, objective setting, and evaluation of performance metrics.
-A complementary document, SCRS/2022/092, proposed a set of management objectives, associated performance metrics, and graphical tools intended to support stakeholder engagement and transparent evaluation of candidate management procedures.
-At present, no active MSE development is underway for Northeast Atlantic porbeagle shark.</t>
-  </si>
-  <si>
     <t>The Management Strategy Evaluation (MSE) process for western Atlantic skipjack tuna (WSKJ) has been developed within the ICCAT framework. The process incorporates documentation of its development history and the associated scientific analyses. In accordance with Recommendation 24-04, the Commission plans to adopt both a Management Procedure (MP) and an Exceptional Circumstances Protocol by 2025.</t>
   </si>
   <si>
@@ -2019,9 +2048,6 @@
     <t>REPORT OF THE 2018 JOINT TUNA RFMO MANAGEMENT STRATEGY EVALUATION WORKING GROUP MEETING (Seattle, USA – 13-15 June 2018)</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>others</t>
   </si>
   <si>
@@ -2050,9 +2076,6 @@
   </si>
   <si>
     <t>SCRS/2024/149</t>
-  </si>
-  <si>
-    <t>An Updated Roadmap for MSE development by Carruthers T.R.</t>
   </si>
   <si>
     <t>https://github.com/ICCAT/iccat-mse/blob/main/assets/references/ref_oth/MSECourse2019_ENG.pdf</t>
@@ -2199,12 +2222,6 @@
   </si>
   <si>
     <t>La Comisión de ICCAT adoptó en 2017 la recomendación sobre el TAC para el atún blanco del Atlántico Norte basada en la regla de control de capturas provisional (Rec. 17-04), y un procedimiento de gestión completo en 2021 (Rec. 21-04) y en 2023 (Rec. 23-05). La Comisión también adoptó el protocolo de circunstancias excepcionales en 2021 (Rec. 21-04, Anexo 2), que incluía la evaluación de las circunstancias excepcionales cada año por parte del SCRS.</t>
-  </si>
-  <si>
-    <t>MSE work for northern albacore started in 2013 (Kell et al., 2013) and officially with Rec. 15-04 where management objectives were adopted and the development of a harvest control rule was requested by the Commission. The development of the interim Harvest Control Rule (HCR) at ICCAT was based on simulations conducted using a specifically designed (MSE) framework. The ICCAT Commission adopted an interim harvest control rule for North Atlantic albacore in 2017 (Rec. 17-04), , representing the first harvest control rule adopted by ICCAT. The software and code used for the simulations was reviewed in 2018 (SCRS, 2019). In 2021, the Commission adopted a full long-term management procedure, including the Exceptional Circumstances protocol for North Atlantic albacore (Rec. 21-04, Annex 2). The ICCAT Commission has set the TACs since 2017 using the interim HCR and the management procedure for northern Atlantic albacore (Rec. 17-04, 21-04, and 23-05). The SCRS evaluates the existence of ECs every year and ECs have not been invoked since 2022.</t>
-  </si>
-  <si>
-    <t>The Operating Models (OMs) represent a range of plausible dynamics for the Northern Albacore stock. The reference set of 132 Oms includes the main sources of uncertainty identified by the WG in the stock assessments. These include uncertainty in biology (steepness,  natural mortality), data weighting (size, cpue, tagging), structure of the time series and fishery dynamics (selectivity and catchability). The outputs of Multifan-CL based stock assessment scenarios, updated with data up to 2020, were used to condition the 132 OMs. The OMs were conditioned using libraries from the FLR-project (www.flr-project.org).</t>
   </si>
   <si>
     <t xml:space="preserve">Minimize inter-annual fluctuations in TAC levels </t>
@@ -2356,12 +2373,6 @@
     <t>CMPs que se evaluarán en 2025</t>
   </si>
   <si>
-    <t>Les travaux d'évaluation de la sécurité des poissons (MSE) pour le germon du Nord ont débuté en 2013 (Kell et al., 2013) et sont officiellement menés avec la Rec. 15-04 où des objectifs de gestion ont été adoptés et l'élaboration d'une règle de contrôle des captures a été demandée par la Commission. L'élaboration de la règle de contrôle des captures provisoire (HCR) à la CICTA s'est basée sur des simulations réalisées à l'aide d'un cadre (MSE) spécialement conçu. La Commission de la CICTA a adopté une règle de contrôle des captures provisoire pour le germon de l'Atlantique Nord en 2017 (Rec. 17-04), ce qui représente la première règle de contrôle des captures adoptée par la CICTA. Le logiciel et le code utilisés pour les simulations ont été révisés en 2018 (SCRS, 2019). En 2021, la Commission a adopté une procédure de gestion à long terme complète, y compris le protocole sur les circonstances exceptionnelles pour le germon de l'Atlantique Nord (Rec. 21-04, annexe 2). La Commission CICTA fixe les TAC depuis 2017 en utilisant le HCR provisoire et la procédure de gestion pour le germon de l'Atlantique Nord (Rec. 17-04, 21-04 et 23-05). Le SCRS évalue chaque année l'existence des CE, et ces derniers n'ont plus été invoqués depuis 2022.</t>
-  </si>
-  <si>
-    <t>El trabajo de MSE para el atún blanco del norte comenzó en 2013 (Kell et al., 2013) y oficialmente con la Rec. 15-04 donde se adoptaron objetivos de ordenación y la Comisión solicitó el desarrollo de una norma de control de capturas. El desarrollo de la Norma de Control de Capturas (HCR) provisional en la CICAA se basó en simulaciones realizadas utilizando un marco (MSE) específicamente diseñado. La Comisión de la CICAA adoptó una norma de control de capturas provisional para el atún blanco del Atlántico norte en 2017 (Rec. 17-04), lo que representa la primera norma de control de capturas adoptada por la CICAA. El software y el código utilizados para las simulaciones se revisaron en 2018 (SCRS, 2019). En 2021, la Comisión adoptó un procedimiento completo de ordenación a largo plazo, incluyendo el protocolo de Circunstancias Excepcionales para el atún blanco del Atlántico Norte (Rec. 21-04, Anexo 2). La Comisión de la CICAA ha establecido los TAC desde 2017 utilizando la HCR provisional y el procedimiento de ordenación para el atún blanco del Atlántico norte (Rec. 17-04, 21-04 y 23-05). El SCRS evalúa la existencia de CE anualmente y no se han invocado desde 2022.</t>
-  </si>
-  <si>
     <t>Les modèles opérationnels (MO) représentent une gamme de dynamiques plausibles pour le stock de germon du Nord. L'ensemble de référence de 132 MO inclut les principales sources d'incertitude identifiées par le GT dans les évaluations de stock. Celles-ci incluent l'incertitude biologique (pente, mortalité naturelle), la pondération des données (taille, CPUE, marquage), la structure des séries chronologiques et la dynamique des pêcheries (sélectivité et capturabilité). Les résultats des scénarios d'évaluation de stock basés sur Multifan-CL, mis à jour avec des données jusqu'en 2020, ont été utilisés pour conditionner les 132 MO. Ces derniers ont été conditionnés à l'aide des bibliothèques du projet FLR (www.flr-project.org).</t>
   </si>
   <si>
@@ -2434,10 +2445,6 @@
   </si>
   <si>
     <t>à partir de 2025</t>
-  </si>
-  <si>
-    <t>The Management Strategy Evaluation (MSE) process for Northern Albacore (NALB) has evolved through a series of ICCAT Recommendations and SCRS initiatives over more than a decade. The process was initiated following concerns about the sustainability of the stock and the need for more robust, precautionary management frameworks. Rec. 09-05 initiated the rebuilding plan for Northern Albacore, aiming to restore biomass to levels consistent with MSY. Rec. 11-04 requested the SCRS to develop a Limit Reference point and Rec. 13-05 called for the SCRS to begin evaluating harvest control rules (HCRs), laying the groundwork for MSE development. In 2015, the SCRS identified Northern Albacore as a priority candidate for the application of MSE, noting the availability of data and scientific interest. Rec. 15-04 stablished the management objectives for the stock and explicitly requested the SCRS to develop HCRs and a dialogue process with the Commission to support the development of a MSE process. 
-The 2016 stock assessment further motivated this work by confirming the rebuilding trajectory of the stock, while also emphasizing the need for evaluating long-term strategies under uncertainty before any TAC increase. Rec 16-06 provided the performance metrics that the SCRS used to evaluate alternative HCRs under uncertainty. In 2017, the Commission adopted an interim Harvest Control Rule (Rec 17-04) and increased the TAC based on it. From 2017 to 2021, an iterative development and peer review of the MSE framework took place under the guidance of the SCRS Albacore Species Group and PA2, that culminated in a formal adoption of a Management Procedure (MP) through Rec. 21-04. Since then, this MP was used to set the TAC every 3 years.</t>
   </si>
   <si>
     <t>Le processus d'évaluation de la stratégie de gestion (ESG) du germon du Nord (NALB) a évolué au fil d'une série de recommandations de la CICTA et d'initiatives du SCRS sur plus de dix ans. Ce processus a été lancé suite à des inquiétudes concernant la durabilité du stock et à la nécessité de cadres de gestion plus robustes et plus prudents. La Rec. 09-05 a lancé le plan de rétablissement du germon du Nord, visant à rétablir la biomasse à des niveaux compatibles avec le RMD. La Rec. 11-04 a demandé au SCRS d'élaborer un point de référence limite et la Rec. 13-05 a appelé le SCRS à commencer l'évaluation des règles de contrôle des captures (RCC), jetant ainsi les bases du développement de l'ESG. En 2015, le SCRS a identifié le germon du Nord comme un candidat prioritaire pour l'application de l'ESG, soulignant la disponibilité des données et l'intérêt scientifique. La Rec. 15-04 a établi les objectifs de gestion du stock et a explicitement demandé au SCRS d'élaborer des RCC et d'engager un dialogue avec la Commission afin de soutenir le développement d'un processus d'ESG. 
@@ -2591,18 +2598,6 @@
 Le SCRS a pour objectif de soumettre à la Commission une analyse de faisabilité pour le MSE du requin bleu du nord et du sud d'ici 2025.</t>
   </si>
   <si>
-    <t>Bien qu'aucun processus formel d'évaluation des stratégies de gestion (ESG) n'ait été établi, des techniques de simulation en boucle fermée ont été appliquées pour évaluer les implications de diverses configurations de données et de modèles d'évaluation sur la performance des procédures de gestion candidates pour le requin-taupe commun de l'Atlantique Nord-Est. En l'absence de séries chronologiques cohérentes sur l'abondance relative du stock, ces analyses par simulation sont particulièrement utiles pour explorer d'autres approches d'évaluation et de gestion.
-Les travaux préliminaires d'ESG pour le requin-taupe commun de l'Atlantique Nord-Est se sont concentrés sur les tests de simulation, la définition d'objectifs opérationnels et l'influence de la disponibilité des données sur le rendement et les performances de conservation. Les premières simulations, présentées dans le document SCRS/2022/090, ont appliqué des tests en boucle fermée à une série de procédures de gestion empiriques simples. Ces premiers essais ont révélé que la performance de la gestion variait considérablement selon les procédures candidates, notamment en ce qui concerne le rendement et le risque d'épuisement du stock. Les analyses ont suivi le cadre structuré d'ESG décrit par Punt et al. (2016), intégrant la spécification du modèle opérationnel, la définition d'objectifs et l'évaluation des indicateurs de performance.
-Un document complémentaire Le document SCRS/2022/092 propose un ensemble d'objectifs de gestion, des indicateurs de performance associés et des outils graphiques destinés à favoriser l'engagement des parties prenantes et une évaluation transparente des procédures de gestion candidates.
-À l'heure actuelle, aucun développement actif d'une stratégie de gestion des risques n'est en cours pour le requin-taupe commun de l'Atlantique Nord-Est.</t>
-  </si>
-  <si>
-    <t>Aunque no se ha establecido un proceso formal de Evaluación de Estrategias de Gestión (EMG), se han aplicado técnicas de simulación de ciclo cerrado para evaluar las implicaciones de diversas configuraciones de datos y modelos de evaluación en el rendimiento de los procedimientos de gestión propuestos para el marrajo sardinero del Atlántico Nororiental. Ante la ausencia de una serie temporal consistente de la abundancia relativa de la población, estos análisis basados en simulación son particularmente valiosos para explorar enfoques alternativos de evaluación y gestión.
-El trabajo preliminar de EMG para el marrajo sardinero del Atlántico Nororiental se ha centrado en las pruebas de simulación, la definición de objetivos operativos y la influencia de la disponibilidad de datos en el rendimiento y el rendimiento de la conservación. Las simulaciones iniciales, presentadas en el documento SCRS/2022/090, aplicaron pruebas de ciclo cerrado a una serie de procedimientos de gestión empíricos sencillos. Estos primeros ensayos revelaron que el rendimiento de la gestión variaba considerablemente entre los procedimientos propuestos, en particular con respecto al rendimiento y al riesgo de agotamiento de la población. Los análisis siguieron el marco estructurado de EMG descrito por Punt et al. (2016), que incorpora la especificación del modelo operativo, el establecimiento de objetivos y la evaluación de las métricas de rendimiento.
-Un documento complementario, El SCRS/2022/092 propuso un conjunto de objetivos de gestión, métricas de rendimiento asociadas y herramientas gráficas para apoyar la participación de las partes interesadas y la evaluación transparente de los procedimientos de gestión propuestos.
-Actualmente, no se está desarrollando ninguna EEM activa para el tiburón cailón del Atlántico Nororiental.</t>
-  </si>
-  <si>
     <t>Rec. 21-04
 Annexe 1</t>
   </si>
@@ -2621,13 +2616,524 @@
   </si>
   <si>
     <t>Diminuer F dès que possible lorsque B&lt;Bmsy</t>
+  </si>
+  <si>
+    <t>The Management Strategy Evaluation (MSE) process for Northern Albacore (NALB) has evolved through a series of ICCAT Recommendations and SCRS initiatives over more than a decade. The process was initiated following concerns about the sustainability of the stock and the need for more robust, precautionary management frameworks. Rec. 09-05 initiated the rebuilding plan for Northern Albacore, aiming to restore biomass to levels consistent with MSY. Rec. 11-04 requested the SCRS to develop a Limit Reference point and Rec. 13-05 called for the SCRS to begin evaluating harvest control rules (HCRs), laying the groundwork for MSE development. In 2015, the SCRS identified Northern Albacore as a priority candidate for the application of MSE, noting the availability of data and scientific interest. Rec. 15-04 stablished the management objectives for the stock and explicitly requested the SCRS to develop HCRs and a dialogue process with the Commission to support the development of a MSE process. 
+The 2016 stock assessment further motivated this work by confirming the rebuilding trajectory of the stock, while also emphasizing the need for evaluating long-term strategies under uncertainty before any TAC increase. Rec. 16-06 provided the performance metrics that the SCRS used to evaluate alternative HCRs under uncertainty. In 2017, the Commission adopted an interim Harvest Control Rule (Rec. 17-04) and increased the TAC based on it. From 2017 to 2021, an iterative development and peer review of the MSE framework took place under the guidance of the SCRS Albacore Species Group and PA2, that culminated in a formal adoption of a Management Procedure (MP) through Rec. 21-04. Since then, this MP was used to set the TAC every 3 years.</t>
+  </si>
+  <si>
+    <t>Rec. 16-06</t>
+  </si>
+  <si>
+    <t>Rec. 13-05</t>
+  </si>
+  <si>
+    <t>Rec. 11-04</t>
+  </si>
+  <si>
+    <t>Rec. 09-05</t>
+  </si>
+  <si>
+    <t>Rec. 15-04</t>
+  </si>
+  <si>
+    <t>MSE work for northern albacore started in 2013</t>
+  </si>
+  <si>
+    <t>Kell et al., 2013</t>
+  </si>
+  <si>
+    <t>Res. 24-02</t>
+  </si>
+  <si>
+    <t>Multi-TT</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Rec. 24-10</t>
+  </si>
+  <si>
+    <t>Rec. 23-07, Annex 4</t>
+  </si>
+  <si>
+    <t>Rec. 22-10</t>
+  </si>
+  <si>
+    <t>Rec. 22-08</t>
+  </si>
+  <si>
+    <t>Rec. 22-09</t>
+  </si>
+  <si>
+    <t>Rec. 23-05</t>
+  </si>
+  <si>
+    <t>Rec. 21-04, Annex 2</t>
+  </si>
+  <si>
+    <t>Rec. 21-04</t>
+  </si>
+  <si>
+    <t>Rec. 17-04</t>
+  </si>
+  <si>
+    <t>PA4-823</t>
+  </si>
+  <si>
+    <t>BSH</t>
+  </si>
+  <si>
+    <t>Rec.24-09</t>
+  </si>
+  <si>
+    <t>SALB</t>
+  </si>
+  <si>
+    <t>Rec.24-04</t>
+  </si>
+  <si>
+    <t>Rec.24-10</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>7. The Group recommended that the Secretariat update the MSE webpage of ICCAT’s website to include capacity building materials and information pertinent to each of ICCAT’s current five MSE processes, including trial specification documents, results summaries, Commission decisions and links to code and Shiny apps</t>
+  </si>
+  <si>
+    <t>capacity building materials</t>
+  </si>
+  <si>
+    <t>trial specification documents</t>
+  </si>
+  <si>
+    <t>results summaries</t>
+  </si>
+  <si>
+    <t>links to code and Shiny apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRS/2020/153 </t>
+  </si>
+  <si>
+    <t>UPDATED CONSOLIDATED REPORT FOR NORTH ATLANTIC  ALBACORE MANAGEMENT STRATEGY EVALUATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorka Merino1, Laurence T. Kell2, Haritz Arrizabalaga1, Josu Santiago1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect. Vol. Sci. Pap. ICCAT, 77(7): 428-461 (2020) </t>
+  </si>
+  <si>
+    <t>The Operating Models (OMs) represent a range of plausible dynamics for the Northern Albacore stock. The reference set of 132 OMs includes the main sources of uncertainty identified by the WG in the stock assessments. These include uncertainty in biology (steepness,  natural mortality), data weighting (size, cpue, tagging), structure of the time series and fishery dynamics (selectivity and catchability). The outputs of Multifan-CL based stock assessment scenarios, updated with data up to 2020, were used to condition the 132 OMs. The OMs were conditioned using libraries from the FLR-project (www.flr-project.org).</t>
+  </si>
+  <si>
+    <t>www.flr-project.org</t>
+  </si>
+  <si>
+    <t>NALB, summary (TSD)</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/abft-mse/TS/TSD.pdf</t>
+  </si>
+  <si>
+    <t>Others MSE Codes</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>ref_link</t>
+  </si>
+  <si>
+    <t>Rec. 24‑09</t>
+  </si>
+  <si>
+    <t>SSWO</t>
+  </si>
+  <si>
+    <t>some document</t>
+  </si>
+  <si>
+    <t>Rec. 21-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor (2024) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carruthers (2024) </t>
+  </si>
+  <si>
+    <t>Punt et al. (2016)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>NEPOR</t>
+  </si>
+  <si>
+    <t>SCRS/2022/092</t>
+  </si>
+  <si>
+    <t>SCRS/2018/142</t>
+  </si>
+  <si>
+    <t>Sculley M.</t>
+  </si>
+  <si>
+    <t>Peer review of the code and algorithms used within the management strategy evaluation framework for the north Atlantic albacore stock</t>
+  </si>
+  <si>
+    <t>SCRS/2018/113</t>
+  </si>
+  <si>
+    <t>Evaluation of variants to the Harvest Control Rule adopted in 2017 for north Atlantic albacore</t>
+  </si>
+  <si>
+    <t>Merino G., Arrizabalaga H., and Santiago J</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t>MSE work for northern albacore started in 2013 (Kell et al., 2013) and officially with Rec. 15-04 where management objectives were adopted and the development of a harvest control rule was requested by the Commission. The development of the interim Harvest Control Rule (HCR) at ICCAT was based on simulations conducted using a specifically designed (MSE) framework. The ICCAT Commission adopted an interim harvest control rule for North Atlantic albacore in 2017 (Rec. 17-04), , representing the first harvest control rule adopted by ICCAT. The software and code used for the simulations was reviewed in 2018 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sculley, 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). In 2021, the Commission adopted a full long-term management procedure, including the Exceptional Circumstances protocol for North Atlantic albacore (Rec. 21-04, Annex 2). The ICCAT Commission has set the TACs since 2017 using the interim HCR and the management procedure for northern Atlantic albacore (Rec. 17-04, 21-04, and 23-05). The SCRS evaluates the existence of ECs every year and ECs have not been invoked since 2022.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Les travaux d'évaluation de la sécurité des poissons (MSE) pour le germon du Nord ont débuté en 2013 (Kell et al., 2013) et sont officiellement menés avec la Rec. 15-04 où des objectifs de gestion ont été adoptés et l'élaboration d'une règle de contrôle des captures a été demandée par la Commission. L'élaboration de la règle de contrôle des captures provisoire (HCR) à la CICTA s'est basée sur des simulations réalisées à l'aide d'un cadre (MSE) spécialement conçu. La Commission de la CICTA a adopté une règle de contrôle des captures provisoire pour le germon de l'Atlantique Nord en 2017 (Rec. 17-04), ce qui représente la première règle de contrôle des captures adoptée par la CICTA. Le logiciel et le code utilisés pour les simulations ont été révisés en 2018 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sculley, 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). En 2021, la Commission a adopté une procédure de gestion à long terme complète, y compris le protocole sur les circonstances exceptionnelles pour le germon de l'Atlantique Nord (Rec. 21-04, annexe 2). La Commission CICTA fixe les TAC depuis 2017 en utilisant le HCR provisoire et la procédure de gestion pour le germon de l'Atlantique Nord (Rec. 17-04, 21-04 et 23-05). Le SCRS évalue chaque année l'existence des CE, et ces derniers n'ont plus été invoqués depuis 2022.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El trabajo de MSE para el atún blanco del norte comenzó en 2013 (Kell et al., 2013) y oficialmente con la Rec. 15-04 donde se adoptaron objetivos de ordenación y la Comisión solicitó el desarrollo de una norma de control de capturas. El desarrollo de la Norma de Control de Capturas (HCR) provisional en la CICAA se basó en simulaciones realizadas utilizando un marco (MSE) específicamente diseñado. La Comisión de la CICAA adoptó una norma de control de capturas provisional para el atún blanco del Atlántico norte en 2017 (Rec. 17-04), lo que representa la primera norma de control de capturas adoptada por la CICAA. El software y el código utilizados para las simulaciones se revisaron en 2018 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sculley, 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). En 2021, la Comisión adoptó un procedimiento completo de ordenación a largo plazo, incluyendo el protocolo de Circunstancias Excepcionales para el atún blanco del Atlántico Norte (Rec. 21-04, Anexo 2). La Comisión de la CICAA ha establecido los TAC desde 2017 utilizando la HCR provisional y el procedimiento de ordenación para el atún blanco del Atlántico norte (Rec. 17-04, 21-04 y 23-05). El SCRS evalúa la existencia de CE anualmente y no se han invocado desde 2022.</t>
+    </r>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>changed after providing the file to translators</t>
+  </si>
+  <si>
+    <t>SCRS/2022/090</t>
+  </si>
+  <si>
+    <t>Taylor et al. (2022a)</t>
+  </si>
+  <si>
+    <t>Taylor et al. (2022b)</t>
+  </si>
+  <si>
+    <t>https://www.iccat.int/Documents/CVSP/CV079_2022/n_4/CV079040231.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iccat.int/Documents/CVSP/CV079_2022/n_4/CV079040216.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Although a formal Management Strategy Evaluation (MSE) process has not been established, closed-loop simulation techniques have been applied to evaluate the implications of various data and assessment model configurations on the performance of candidate management procedures for Northeast Atlantic porbeagle shark. In the absence of a consistent time series of relative abundance for the stock, such simulation-based analyses are particularly valuable for exploring alternative assessment and management approaches.
+Preliminary MSE work for Northeast Atlantic porbeagle has focused on simulation testing, the definition of operational objectives, and the influence of data availability on yield and conservation performance. Initial simulations, presented in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taylor et al. (2022a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, applied closed-loop testing to a range of simple empirical management procedures. These early trials revealed that management performance varied considerably across candidate procedures, particularly with respect to yield and the risk of stock depletion. The analyses followed the structured MSE framework outlined by Punt et al. (2016), incorporating operating model specification, objective setting, and evaluation of performance metrics.
+A complementary document, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taylor et al. (2022b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, proposed a set of management objectives, associated performance metrics, and graphical tools intended to support stakeholder engagement and transparent evaluation of candidate management procedures.
+At present, no active MSE development is underway for Northeast Atlantic porbeagle shark.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bien qu'aucun processus formel d'évaluation des stratégies de gestion (ESG) n'ait été établi, des techniques de simulation en boucle fermée ont été appliquées pour évaluer les implications de diverses configurations de données et de modèles d'évaluation sur la performance des procédures de gestion candidates pour le requin-taupe commun de l'Atlantique Nord-Est. En l'absence de séries chronologiques cohérentes sur l'abondance relative du stock, ces analyses par simulation sont particulièrement utiles pour explorer d'autres approches d'évaluation et de gestion.
+Les travaux préliminaires d'ESG pour le requin-taupe commun de l'Atlantique Nord-Est se sont concentrés sur les tests de simulation, la définition d'objectifs opérationnels et l'influence de la disponibilité des données sur le rendement et les performances de conservation. Les premières simulations, présentées dans le document </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taylor et al. (2022a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ont appliqué des tests en boucle fermée à une série de procédures de gestion empiriques simples. Ces premiers essais ont révélé que la performance de la gestion variait considérablement selon les procédures candidates, notamment en ce qui concerne le rendement et le risque d'épuisement du stock. Les analyses ont suivi le cadre structuré d'ESG décrit par Punt et al. (2016), intégrant la spécification du modèle opérationnel, la définition d'objectifs et l'évaluation des indicateurs de performance.
+Un document complémentaire Le document </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Taylor et al. (2022b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>propose un ensemble d'objectifs de gestion, des indicateurs de performance associés et des outils graphiques destinés à favoriser l'engagement des parties prenantes et une évaluation transparente des procédures de gestion candidates.
+À l'heure actuelle, aucun développement actif d'une stratégie de gestion des risques n'est en cours pour le requin-taupe commun de l'Atlantique Nord-Est.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aunque no se ha establecido un proceso formal de Evaluación de Estrategias de Gestión (EMG), se han aplicado técnicas de simulación de ciclo cerrado para evaluar las implicaciones de diversas configuraciones de datos y modelos de evaluación en el rendimiento de los procedimientos de gestión propuestos para el marrajo sardinero del Atlántico Nororiental. Ante la ausencia de una serie temporal consistente de la abundancia relativa de la población, estos análisis basados en simulación son particularmente valiosos para explorar enfoques alternativos de evaluación y gestión.
+El trabajo preliminar de EMG para el marrajo sardinero del Atlántico Nororiental se ha centrado en las pruebas de simulación, la definición de objetivos operativos y la influencia de la disponibilidad de datos en el rendimiento y el rendimiento de la conservación. Las simulaciones iniciales, presentadas en el documento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taylor et al. (2022a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, aplicaron pruebas de ciclo cerrado a una serie de procedimientos de gestión empíricos sencillos. Estos primeros ensayos revelaron que el rendimiento de la gestión variaba considerablemente entre los procedimientos propuestos, en particular con respecto al rendimiento y al riesgo de agotamiento de la población. Los análisis siguieron el marco estructurado de EMG descrito por Punt et al. (2016), que incorpora la especificación del modelo operativo, el establecimiento de objetivos y la evaluación de las métricas de rendimiento.
+Un documento complementario, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taylor et al. (2022b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> propuso un conjunto de objetivos de gestión, métricas de rendimiento asociadas y herramientas gráficas para apoyar la participación de las partes interesadas y la evaluación transparente de los procedimientos de gestión propuestos.
+Actualmente, no se está desarrollando ninguna EEM activa para el tiburón cailón del Atlántico Nororiental.</t>
+    </r>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Taylor G., Ortiz M., Kimoto A., and Coelho R.</t>
+  </si>
+  <si>
+    <t>Anon.</t>
+  </si>
+  <si>
+    <t>An Updated Roadmap for MSE development </t>
+  </si>
+  <si>
+    <t>Carruthers T.R.</t>
+  </si>
+  <si>
+    <t>https://github.com/ICCAT/iccat-mse-web/blob/main/species/NALB/references/2020_SCRS_2020_153_Merino_et_al.pdf</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>2015-07-e.pdf</t>
+  </si>
+  <si>
+    <t>2015-07-f.pdf</t>
+  </si>
+  <si>
+    <t>2015-07-s.pdf</t>
+  </si>
+  <si>
+    <t>ENGfile</t>
+  </si>
+  <si>
+    <t>FRAfile</t>
+  </si>
+  <si>
+    <t>ESPfile</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ICCAT/iccat-mse-web/main/species/NALB/references/2020_SCRS_2020_153_Merino_et_al.pdf</t>
+  </si>
+  <si>
+    <t>ref1_link</t>
+  </si>
+  <si>
+    <t>ref2_link</t>
+  </si>
+  <si>
+    <t>ref3_link</t>
+  </si>
+  <si>
+    <t>ref4_link</t>
+  </si>
+  <si>
+    <t>ref5_link</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</t>
+  </si>
+  <si>
+    <t>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</t>
+  </si>
+  <si>
+    <t>orignal language is English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2662,8 +3168,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2700,12 +3232,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2714,7 +3267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2777,6 +3330,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3092,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7162931-28C0-471B-BEB3-707D7FF86F30}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,7 +3681,12 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>766</v>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -3137,6 +3710,14 @@
       <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="C15" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -3144,12 +3725,518 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BC4016-2DF8-4F00-B063-2FBB1D957300}">
+  <dimension ref="A5:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C10" t="s">
+        <v>781</v>
+      </c>
+      <c r="E10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>770</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>770</v>
+      </c>
+      <c r="C20" t="s">
+        <v>769</v>
+      </c>
+      <c r="E20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>820</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="H27" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>820</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>811</v>
+      </c>
+      <c r="C29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E29" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E30" t="s">
+        <v>807</v>
+      </c>
+      <c r="H30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I30" t="s">
+        <v>805</v>
+      </c>
+      <c r="J30" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E31" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C32" t="s">
+        <v>781</v>
+      </c>
+      <c r="E32" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>811</v>
+      </c>
+      <c r="C33" t="s">
+        <v>781</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>811</v>
+      </c>
+      <c r="C34" t="s">
+        <v>812</v>
+      </c>
+      <c r="E34" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>836</v>
+      </c>
+      <c r="B35" t="s">
+        <v>811</v>
+      </c>
+      <c r="C35" t="s">
+        <v>812</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>828</v>
+      </c>
+      <c r="F35" t="s">
+        <v>813</v>
+      </c>
+      <c r="I35" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>836</v>
+      </c>
+      <c r="B36" t="s">
+        <v>811</v>
+      </c>
+      <c r="C36" t="s">
+        <v>812</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>827</v>
+      </c>
+      <c r="F36" t="s">
+        <v>826</v>
+      </c>
+      <c r="G36" t="s">
+        <v>837</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>793</v>
+      </c>
+      <c r="H37" t="s">
+        <v>799</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G40" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="19" t="s">
+        <v>798</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B56" r:id="rId1" xr:uid="{B52CCE73-C17D-4910-85FD-AD2E9043D773}"/>
+    <hyperlink ref="B55" r:id="rId2" xr:uid="{04C87620-C7AD-4F5A-9F84-E8D16FE39372}"/>
+    <hyperlink ref="I36" r:id="rId3" xr:uid="{A07147FD-7B21-466B-B3C7-FE6F71E9D337}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD71FE-0ED3-4394-8A27-E2DEF3DD86FF}">
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD71FE-0ED3-4394-8A27-E2DEF3DD86FF}">
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A25" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,13 +4453,13 @@
         <v>261</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3383,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>309</v>
@@ -3472,13 +4559,13 @@
         <v>266</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3486,16 +4573,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3598,13 +4685,13 @@
         <v>279</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3707,13 +4794,13 @@
         <v>276</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,13 +4903,13 @@
         <v>272</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4142,10 +5229,10 @@
         <v>291</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4350,6 +5437,179 @@
       </c>
       <c r="E67" s="7" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D68" s="7" t="str">
+        <f>+C68</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E68" s="7" t="str">
+        <f>+D68</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="10" t="str">
+        <f>NALB!C52</f>
+        <v>References</v>
+      </c>
+      <c r="D71" s="10" t="str">
+        <f>NALB!D52</f>
+        <v>Références</v>
+      </c>
+      <c r="E71" s="10" t="str">
+        <f>NALB!E52</f>
+        <v>Referencias</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="10" t="str">
+        <f>NALB!C56</f>
+        <v>Materials</v>
+      </c>
+      <c r="D72" s="10" t="str">
+        <f>NALB!D56</f>
+        <v>Matériels</v>
+      </c>
+      <c r="E72" s="10" t="str">
+        <f>NALB!E56</f>
+        <v>Materiales</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="10" t="str">
+        <f>NALB!C58</f>
+        <v>Rec/Res</v>
+      </c>
+      <c r="D73" s="10" t="str">
+        <f>NALB!D58</f>
+        <v>Rec/Res</v>
+      </c>
+      <c r="E73" s="10" t="str">
+        <f>NALB!E58</f>
+        <v>Rec/Res</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="10" t="str">
+        <f>NALB!C59</f>
+        <v>Meetings</v>
+      </c>
+      <c r="D74" s="10" t="str">
+        <f>NALB!D59</f>
+        <v>Réunions</v>
+      </c>
+      <c r="E74" s="10" t="str">
+        <f>NALB!E59</f>
+        <v>Reuniones</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="10" t="str">
+        <f>NALB!C60</f>
+        <v>SCRS Docs</v>
+      </c>
+      <c r="D75" s="10" t="str">
+        <f>NALB!D60</f>
+        <v>Documents SCRS</v>
+      </c>
+      <c r="E75" s="10" t="str">
+        <f>NALB!E60</f>
+        <v>Documentos SCRS</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="10" t="str">
+        <f>NALB!C61</f>
+        <v>Others</v>
+      </c>
+      <c r="D76" s="10" t="str">
+        <f>NALB!D61</f>
+        <v>Autres</v>
+      </c>
+      <c r="E76" s="10" t="str">
+        <f>NALB!E61</f>
+        <v>Otros</v>
       </c>
     </row>
   </sheetData>
@@ -4376,18 +5636,20 @@
     <hyperlink ref="C55" r:id="rId19" xr:uid="{255D548A-C406-4A72-AC3C-1148A92759B7}"/>
     <hyperlink ref="D55" r:id="rId20" location="fra" xr:uid="{D25D5DCD-FAA2-453F-91E3-67BA80974B4A}"/>
     <hyperlink ref="E55" r:id="rId21" location="esp" xr:uid="{A6264D37-0568-4634-A7A6-127743BF4570}"/>
+    <hyperlink ref="C68" r:id="rId22" xr:uid="{F97820F9-34BF-40FA-B9C2-53B5B0E28816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCABA6B-1FC5-407F-BFB2-5CCAF8C13B7B}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4636,13 +5898,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>663</v>
+        <v>821</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>702</v>
+        <v>822</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4689,13 +5951,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4759,13 +6021,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>664</v>
+        <v>797</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4926,13 +6188,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4960,13 +6222,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -5013,13 +6275,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -5047,13 +6309,13 @@
         <v>10</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5064,13 +6326,13 @@
         <v>45</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -5117,13 +6379,13 @@
         <v>44</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5187,13 +6449,13 @@
         <v>50</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -5311,7 +6573,7 @@
         <v>169</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>397</v>
@@ -5377,16 +6639,16 @@
         <v>2</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="E57" s="16" t="s">
         <v>582</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5462,19 +6724,18 @@
         <v>2</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="12" t="str">
-        <f>GEN!C51</f>
-        <v>Updated: July 7, 2025</v>
-      </c>
-      <c r="D62" s="12" t="str">
-        <f>GEN!D51</f>
-        <v>Mis à jour : 7 juillet 2025</v>
-      </c>
-      <c r="E62" s="12" t="str">
-        <f>GEN!E51</f>
-        <v>Actualizado: 7 de julio de 2025</v>
+        <v>850</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>+C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="E62" s="16" t="str">
+        <f t="shared" ref="E62:E66" si="0">+D62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5482,19 +6743,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <f>GEN!C52</f>
-        <v>Copyright © 2025 ICCAT. All rights reserved</v>
-      </c>
-      <c r="D63" s="12" t="str">
-        <f>GEN!D52</f>
-        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
-      </c>
-      <c r="E63" s="12" t="str">
-        <f>GEN!E52</f>
-        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
+        <v>851</v>
+      </c>
+      <c r="C63" s="16" t="str">
+        <f>C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f t="shared" ref="D63:D66" si="1">+C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="E63" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5502,19 +6763,19 @@
         <v>2</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="12" t="str">
-        <f>GEN!C53</f>
-        <v>ICCAT MSE links</v>
-      </c>
-      <c r="D64" s="12" t="str">
-        <f>GEN!D53</f>
-        <v>Liens ICCAT MSE</v>
-      </c>
-      <c r="E64" s="12" t="str">
-        <f>GEN!E53</f>
-        <v>Enlaces ICCAT MSE</v>
+        <v>852</v>
+      </c>
+      <c r="C64" s="16" t="str">
+        <f t="shared" ref="C64:C66" si="2">C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="E64" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -5522,19 +6783,19 @@
         <v>2</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <f>GEN!C54</f>
-        <v>MSE Summary</v>
-      </c>
-      <c r="D65" s="12" t="str">
-        <f>GEN!D54</f>
-        <v>Résumé de l’MSE</v>
-      </c>
-      <c r="E65" s="12" t="str">
-        <f>GEN!E54</f>
-        <v>Resumen de MSE</v>
+        <v>853</v>
+      </c>
+      <c r="C65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="E65" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -5542,313 +6803,419 @@
         <v>2</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="12" t="str">
-        <f>GEN!C55</f>
-        <v>https://iccat.github.io/iccat-mse-web/</v>
-      </c>
-      <c r="D66" s="12" t="str">
-        <f>GEN!D55</f>
-        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
-      </c>
-      <c r="E66" s="12" t="str">
-        <f>GEN!E55</f>
-        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
+        <v>854</v>
+      </c>
+      <c r="C66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
+      </c>
+      <c r="E66" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nalb</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>218</v>
+      <c r="B67" s="12" t="str">
+        <f>GEN!B51</f>
+        <v>date</v>
       </c>
       <c r="C67" s="12" t="str">
-        <f>GEN!C56</f>
-        <v>North Atlantic Albacore</v>
+        <f>GEN!C51</f>
+        <v>Updated: July 7, 2025</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f>GEN!D56</f>
-        <v>Germon de l’Atlantique Nord</v>
+        <f>GEN!D51</f>
+        <v>Mis à jour : 7 juillet 2025</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f>GEN!E56</f>
-        <v>Atún blanco del Atlántico Norte</v>
+        <f>GEN!E51</f>
+        <v>Actualizado: 7 de julio de 2025</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>220</v>
+      <c r="B68" s="12" t="str">
+        <f>GEN!B52</f>
+        <v>fin</v>
       </c>
       <c r="C68" s="12" t="str">
-        <f>GEN!C57</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
+        <f>GEN!C52</f>
+        <v>Copyright © 2025 ICCAT. All rights reserved</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f>GEN!D57</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
+        <f>GEN!D52</f>
+        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f>GEN!E57</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+        <f>GEN!E52</f>
+        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>219</v>
+      <c r="B69" s="12" t="str">
+        <f>GEN!B53</f>
+        <v>Title11</v>
       </c>
       <c r="C69" s="12" t="str">
-        <f>GEN!C58</f>
-        <v>Atlantic Bluefin Tuna</v>
+        <f>GEN!C53</f>
+        <v>ICCAT MSE links</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f>GEN!D58</f>
-        <v>Thon rouge de l’Atlantique</v>
+        <f>GEN!D53</f>
+        <v>Liens ICCAT MSE</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f>GEN!E58</f>
-        <v>Atún rojo del Atlántico</v>
+        <f>GEN!E53</f>
+        <v>Enlaces ICCAT MSE</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>221</v>
+      <c r="B70" s="12" t="str">
+        <f>GEN!B54</f>
+        <v>gen</v>
       </c>
       <c r="C70" s="12" t="str">
-        <f>GEN!C59</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
+        <f>GEN!C54</f>
+        <v>MSE Summary</v>
       </c>
       <c r="D70" s="12" t="str">
-        <f>GEN!D59</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
+        <f>GEN!D54</f>
+        <v>Résumé de l’MSE</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f>GEN!E59</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+        <f>GEN!E54</f>
+        <v>Resumen de MSE</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>222</v>
+      <c r="B71" s="12" t="str">
+        <f>GEN!B55</f>
+        <v>gen_link</v>
       </c>
       <c r="C71" s="12" t="str">
-        <f>GEN!C60</f>
-        <v>North Atlantic Swordfish</v>
+        <f>GEN!C55</f>
+        <v>https://iccat.github.io/iccat-mse-web/</v>
       </c>
       <c r="D71" s="12" t="str">
-        <f>GEN!D60</f>
-        <v>Espadon de l’Atlantique Nord</v>
+        <f>GEN!D55</f>
+        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f>GEN!E60</f>
-        <v>Pez espada del Atlántico Norte</v>
+        <f>GEN!E55</f>
+        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>223</v>
+      <c r="B72" s="12" t="str">
+        <f>GEN!B56</f>
+        <v>sp1</v>
       </c>
       <c r="C72" s="12" t="str">
-        <f>GEN!C61</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
+        <f>GEN!C56</f>
+        <v>North Atlantic Albacore</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f>GEN!D61</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
+        <f>GEN!D56</f>
+        <v>Germon de l’Atlantique Nord</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f>GEN!E61</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+        <f>GEN!E56</f>
+        <v>Atún blanco del Atlántico Norte</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>224</v>
+      <c r="B73" s="12" t="str">
+        <f>GEN!B57</f>
+        <v>sp1_link</v>
       </c>
       <c r="C73" s="12" t="str">
-        <f>GEN!C62</f>
-        <v>West Atlantic Skipjack</v>
+        <f>GEN!C57</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
       </c>
       <c r="D73" s="12" t="str">
-        <f>GEN!D62</f>
-        <v>Listao de l’Atlantique Ouest</v>
+        <f>GEN!D57</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f>GEN!E62</f>
-        <v>Listado del Atlántico Oeste</v>
+        <f>GEN!E57</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>229</v>
+      <c r="B74" s="12" t="str">
+        <f>GEN!B58</f>
+        <v>sp2</v>
       </c>
       <c r="C74" s="12" t="str">
-        <f>GEN!C63</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+        <f>GEN!C58</f>
+        <v>Atlantic Bluefin Tuna</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f>GEN!D63</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+        <f>GEN!D58</f>
+        <v>Thon rouge de l’Atlantique</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f>GEN!E63</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+        <f>GEN!E58</f>
+        <v>Atún rojo del Atlántico</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>225</v>
+      <c r="B75" s="12" t="str">
+        <f>GEN!B59</f>
+        <v>sp2_link</v>
       </c>
       <c r="C75" s="12" t="str">
-        <f>GEN!C64</f>
-        <v>Multi-stocks Tropical Tunas</v>
+        <f>GEN!C59</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
       </c>
       <c r="D75" s="12" t="str">
-        <f>GEN!D64</f>
-        <v>Thonidés tropicaux multi-stocks</v>
+        <f>GEN!D59</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f>GEN!E64</f>
-        <v>Túnidos tropicales multistocks</v>
+        <f>GEN!E59</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>228</v>
+      <c r="B76" s="12" t="str">
+        <f>GEN!B60</f>
+        <v>sp3</v>
       </c>
       <c r="C76" s="12" t="str">
-        <f>GEN!C65</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+        <f>GEN!C60</f>
+        <v>North Atlantic Swordfish</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f>GEN!D65</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+        <f>GEN!D60</f>
+        <v>Espadon de l’Atlantique Nord</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f>GEN!E65</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+        <f>GEN!E60</f>
+        <v>Pez espada del Atlántico Norte</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
+      <c r="B77" s="12" t="str">
+        <f>GEN!B61</f>
+        <v>sp3_link</v>
       </c>
       <c r="C77" s="12" t="str">
-        <f>GEN!C66</f>
-        <v>Other Species</v>
+        <f>GEN!C61</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
       </c>
       <c r="D77" s="12" t="str">
-        <f>GEN!D66</f>
-        <v>Autres espèces</v>
+        <f>GEN!D61</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f>GEN!E66</f>
-        <v>Otras especies</v>
+        <f>GEN!E61</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>227</v>
+      <c r="B78" s="12" t="str">
+        <f>GEN!B62</f>
+        <v>sp4</v>
       </c>
       <c r="C78" s="12" t="str">
-        <f>GEN!C67</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+        <f>GEN!C62</f>
+        <v>West Atlantic Skipjack</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f>GEN!D67</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+        <f>GEN!D62</f>
+        <v>Listao de l’Atlantique Ouest</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f>GEN!E67</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
+        <f>GEN!E62</f>
+        <v>Listado del Atlántico Oeste</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B79" s="12" t="str">
+        <f>GEN!B63</f>
+        <v>sp4_link</v>
+      </c>
+      <c r="C79" s="12" t="str">
+        <f>GEN!C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+      </c>
+      <c r="D79" s="12" t="str">
+        <f>GEN!D63</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+      </c>
+      <c r="E79" s="12" t="str">
+        <f>GEN!E63</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>638</v>
+      <c r="B80" s="12" t="str">
+        <f>GEN!B64</f>
+        <v>sp5</v>
+      </c>
+      <c r="C80" s="12" t="str">
+        <f>GEN!C64</f>
+        <v>Multi-stocks Tropical Tunas</v>
+      </c>
+      <c r="D80" s="12" t="str">
+        <f>GEN!D64</f>
+        <v>Thonidés tropicaux multi-stocks</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f>GEN!E64</f>
+        <v>Túnidos tropicales multistocks</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f>GEN!B65</f>
+        <v>sp5_link</v>
+      </c>
+      <c r="C81" s="12" t="str">
+        <f>GEN!C65</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+      </c>
+      <c r="D81" s="12" t="str">
+        <f>GEN!D65</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+      </c>
+      <c r="E81" s="12" t="str">
+        <f>GEN!E65</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>GEN!B66</f>
+        <v>sp6</v>
+      </c>
+      <c r="C82" s="12" t="str">
+        <f>GEN!C66</f>
+        <v>Other Species</v>
+      </c>
+      <c r="D82" s="12" t="str">
+        <f>GEN!D66</f>
+        <v>Autres espèces</v>
+      </c>
+      <c r="E82" s="12" t="str">
+        <f>GEN!E66</f>
+        <v>Otras especies</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f>GEN!B67</f>
+        <v>sp6_link</v>
+      </c>
+      <c r="C83" s="12" t="str">
+        <f>GEN!C67</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>GEN!D67</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <f>GEN!E67</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="12" t="str">
+        <f>GEN!B68</f>
+        <v>ref_link</v>
+      </c>
+      <c r="C84" s="12" t="str">
+        <f>GEN!C68</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="D84" s="12" t="str">
+        <f>GEN!D68</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E84" s="12" t="str">
+        <f>GEN!E68</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1" display="https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html" xr:uid="{B1BD35AA-F832-4B90-8AF7-061DAADF5A07}"/>
+    <hyperlink ref="C73" r:id="rId1" display="https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html" xr:uid="{B1BD35AA-F832-4B90-8AF7-061DAADF5A07}"/>
     <hyperlink ref="D40" r:id="rId2" xr:uid="{3F5A1888-17C8-4D66-ACC4-7092B607B277}"/>
     <hyperlink ref="C25" r:id="rId3" xr:uid="{CDDA4E63-763C-4465-8D98-EAA2DD340072}"/>
     <hyperlink ref="C40" r:id="rId4" xr:uid="{2DC87837-8800-446A-BB7F-7BAFC4D80634}"/>
+    <hyperlink ref="B73" r:id="rId5" display="https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html" xr:uid="{D71BC239-4900-40E2-9100-964295C69686}"/>
+    <hyperlink ref="C62" r:id="rId6" location="nalb" xr:uid="{D8933B99-2650-44C6-9545-BB6B691BE637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4112867E-01B8-445A-A186-6CFC6BEFD1B3}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A57" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5974,13 +7341,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6098,13 +7465,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6154,7 +7521,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>503</v>
@@ -6230,13 +7597,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6613,13 +7980,13 @@
         <v>44</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -6686,13 +8053,13 @@
         <v>50</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -6786,8 +8153,9 @@
       <c r="A52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>198</v>
+      <c r="B52" s="12" t="str">
+        <f>NALB!B52</f>
+        <v>Title10</v>
       </c>
       <c r="C52" s="12" t="str">
         <f>NALB!C52</f>
@@ -6806,8 +8174,9 @@
       <c r="A53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>169</v>
+      <c r="B53" s="10" t="str">
+        <f>NALB!B53</f>
+        <v>note_use1</v>
       </c>
       <c r="C53" s="10" t="str">
         <f>NALB!C53</f>
@@ -6856,8 +8225,9 @@
       <c r="A55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>171</v>
+      <c r="B55" s="10" t="str">
+        <f>NALB!B55</f>
+        <v>note_use3</v>
       </c>
       <c r="C55" s="10" t="str">
         <f>NALB!C55</f>
@@ -6879,8 +8249,9 @@
       <c r="A56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>200</v>
+      <c r="B56" s="10" t="str">
+        <f>NALB!B56</f>
+        <v>ref1</v>
       </c>
       <c r="C56" s="10" t="str">
         <f>NALB!C56</f>
@@ -6899,8 +8270,9 @@
       <c r="A57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>580</v>
+      <c r="B57" s="10" t="str">
+        <f>NALB!B57</f>
+        <v>ref1txt</v>
       </c>
       <c r="C57" s="10" t="str">
         <f>NALB!C57</f>
@@ -6919,8 +8291,9 @@
       <c r="A58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>201</v>
+      <c r="B58" s="10" t="str">
+        <f>NALB!B58</f>
+        <v>ref2</v>
       </c>
       <c r="C58" s="10" t="str">
         <f>NALB!C58</f>
@@ -6939,8 +8312,9 @@
       <c r="A59" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>202</v>
+      <c r="B59" s="10" t="str">
+        <f>NALB!B59</f>
+        <v>ref3</v>
       </c>
       <c r="C59" s="10" t="str">
         <f>NALB!C59</f>
@@ -6959,8 +8333,9 @@
       <c r="A60" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>203</v>
+      <c r="B60" s="10" t="str">
+        <f>NALB!B60</f>
+        <v>ref4</v>
       </c>
       <c r="C60" s="10" t="str">
         <f>NALB!C60</f>
@@ -6979,8 +8354,9 @@
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>204</v>
+      <c r="B61" s="10" t="str">
+        <f>NALB!B61</f>
+        <v>ref5</v>
       </c>
       <c r="C61" s="10" t="str">
         <f>NALB!C61</f>
@@ -7000,19 +8376,18 @@
         <v>3</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="10" t="str">
-        <f>NALB!C62</f>
-        <v>Updated: July 7, 2025</v>
-      </c>
-      <c r="D62" s="10" t="str">
-        <f>NALB!D62</f>
-        <v>Mis à jour : 7 juillet 2025</v>
-      </c>
-      <c r="E62" s="10" t="str">
-        <f>NALB!E62</f>
-        <v>Actualizado: 7 de julio de 2025</v>
+        <v>850</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>+C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="E62" s="16" t="str">
+        <f t="shared" ref="E62:E66" si="1">+D62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7020,19 +8395,19 @@
         <v>3</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="10" t="str">
-        <f>NALB!C63</f>
-        <v>Copyright © 2025 ICCAT. All rights reserved</v>
-      </c>
-      <c r="D63" s="10" t="str">
-        <f>NALB!D63</f>
-        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
-      </c>
-      <c r="E63" s="10" t="str">
-        <f>NALB!E63</f>
-        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
+        <v>851</v>
+      </c>
+      <c r="C63" s="16" t="str">
+        <f>C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f t="shared" ref="D63:D66" si="2">+C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="E63" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -7040,19 +8415,19 @@
         <v>3</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="10" t="str">
-        <f>NALB!C64</f>
-        <v>ICCAT MSE links</v>
-      </c>
-      <c r="D64" s="10" t="str">
-        <f>NALB!D64</f>
-        <v>Liens ICCAT MSE</v>
-      </c>
-      <c r="E64" s="10" t="str">
-        <f>NALB!E64</f>
-        <v>Enlaces ICCAT MSE</v>
+        <v>852</v>
+      </c>
+      <c r="C64" s="16" t="str">
+        <f t="shared" ref="C64:C66" si="3">C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="E64" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -7060,19 +8435,19 @@
         <v>3</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="10" t="str">
-        <f>NALB!C65</f>
-        <v>MSE Summary</v>
-      </c>
-      <c r="D65" s="10" t="str">
-        <f>NALB!D65</f>
-        <v>Résumé de l’MSE</v>
-      </c>
-      <c r="E65" s="10" t="str">
-        <f>NALB!E65</f>
-        <v>Resumen de MSE</v>
+        <v>853</v>
+      </c>
+      <c r="C65" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="E65" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -7080,259 +8455,397 @@
         <v>3</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="10" t="str">
-        <f>NALB!C66</f>
-        <v>https://iccat.github.io/iccat-mse-web/</v>
-      </c>
-      <c r="D66" s="10" t="str">
-        <f>NALB!D66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
-      </c>
-      <c r="E66" s="10" t="str">
-        <f>NALB!E66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
+        <v>854</v>
+      </c>
+      <c r="C66" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
+      </c>
+      <c r="E66" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#bft</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>218</v>
+      <c r="B67" s="10" t="str">
+        <f>NALB!B67</f>
+        <v>date</v>
       </c>
       <c r="C67" s="10" t="str">
         <f>NALB!C67</f>
-        <v>North Atlantic Albacore</v>
+        <v>Updated: July 7, 2025</v>
       </c>
       <c r="D67" s="10" t="str">
         <f>NALB!D67</f>
-        <v>Germon de l’Atlantique Nord</v>
+        <v>Mis à jour : 7 juillet 2025</v>
       </c>
       <c r="E67" s="10" t="str">
         <f>NALB!E67</f>
-        <v>Atún blanco del Atlántico Norte</v>
+        <v>Actualizado: 7 de julio de 2025</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>220</v>
+      <c r="B68" s="10" t="str">
+        <f>NALB!B68</f>
+        <v>fin</v>
       </c>
       <c r="C68" s="10" t="str">
         <f>NALB!C68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
+        <v>Copyright © 2025 ICCAT. All rights reserved</v>
       </c>
       <c r="D68" s="10" t="str">
         <f>NALB!D68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
+        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
       </c>
       <c r="E68" s="10" t="str">
         <f>NALB!E68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>219</v>
+      <c r="B69" s="10" t="str">
+        <f>NALB!B69</f>
+        <v>Title11</v>
       </c>
       <c r="C69" s="10" t="str">
         <f>NALB!C69</f>
-        <v>Atlantic Bluefin Tuna</v>
+        <v>ICCAT MSE links</v>
       </c>
       <c r="D69" s="10" t="str">
         <f>NALB!D69</f>
-        <v>Thon rouge de l’Atlantique</v>
+        <v>Liens ICCAT MSE</v>
       </c>
       <c r="E69" s="10" t="str">
         <f>NALB!E69</f>
-        <v>Atún rojo del Atlántico</v>
+        <v>Enlaces ICCAT MSE</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>221</v>
+      <c r="B70" s="10" t="str">
+        <f>NALB!B70</f>
+        <v>gen</v>
       </c>
       <c r="C70" s="10" t="str">
         <f>NALB!C70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
+        <v>MSE Summary</v>
       </c>
       <c r="D70" s="10" t="str">
         <f>NALB!D70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
+        <v>Résumé de l’MSE</v>
       </c>
       <c r="E70" s="10" t="str">
         <f>NALB!E70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+        <v>Resumen de MSE</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>222</v>
+      <c r="B71" s="10" t="str">
+        <f>NALB!B71</f>
+        <v>gen_link</v>
       </c>
       <c r="C71" s="10" t="str">
         <f>NALB!C71</f>
-        <v>North Atlantic Swordfish</v>
+        <v>https://iccat.github.io/iccat-mse-web/</v>
       </c>
       <c r="D71" s="10" t="str">
         <f>NALB!D71</f>
-        <v>Espadon de l’Atlantique Nord</v>
+        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
       </c>
       <c r="E71" s="10" t="str">
         <f>NALB!E71</f>
-        <v>Pez espada del Atlántico Norte</v>
+        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>223</v>
+      <c r="B72" s="10" t="str">
+        <f>NALB!B72</f>
+        <v>sp1</v>
       </c>
       <c r="C72" s="10" t="str">
         <f>NALB!C72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
+        <v>North Atlantic Albacore</v>
       </c>
       <c r="D72" s="10" t="str">
         <f>NALB!D72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
+        <v>Germon de l’Atlantique Nord</v>
       </c>
       <c r="E72" s="10" t="str">
         <f>NALB!E72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+        <v>Atún blanco del Atlántico Norte</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>224</v>
+      <c r="B73" s="10" t="str">
+        <f>NALB!B73</f>
+        <v>sp1_link</v>
       </c>
       <c r="C73" s="10" t="str">
         <f>NALB!C73</f>
-        <v>West Atlantic Skipjack</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
       </c>
       <c r="D73" s="10" t="str">
         <f>NALB!D73</f>
-        <v>Listao de l’Atlantique Ouest</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
       </c>
       <c r="E73" s="10" t="str">
         <f>NALB!E73</f>
-        <v>Listado del Atlántico Oeste</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>229</v>
+      <c r="B74" s="10" t="str">
+        <f>NALB!B74</f>
+        <v>sp2</v>
       </c>
       <c r="C74" s="10" t="str">
         <f>NALB!C74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+        <v>Atlantic Bluefin Tuna</v>
       </c>
       <c r="D74" s="10" t="str">
         <f>NALB!D74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+        <v>Thon rouge de l’Atlantique</v>
       </c>
       <c r="E74" s="10" t="str">
         <f>NALB!E74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+        <v>Atún rojo del Atlántico</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>225</v>
+      <c r="B75" s="10" t="str">
+        <f>NALB!B75</f>
+        <v>sp2_link</v>
       </c>
       <c r="C75" s="10" t="str">
         <f>NALB!C75</f>
-        <v>Multi-stocks Tropical Tunas</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
       </c>
       <c r="D75" s="10" t="str">
         <f>NALB!D75</f>
-        <v>Thonidés tropicaux multi-stocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
       </c>
       <c r="E75" s="10" t="str">
         <f>NALB!E75</f>
-        <v>Túnidos tropicales multistocks</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>228</v>
+      <c r="B76" s="10" t="str">
+        <f>NALB!B76</f>
+        <v>sp3</v>
       </c>
       <c r="C76" s="10" t="str">
         <f>NALB!C76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+        <v>North Atlantic Swordfish</v>
       </c>
       <c r="D76" s="10" t="str">
         <f>NALB!D76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+        <v>Espadon de l’Atlantique Nord</v>
       </c>
       <c r="E76" s="10" t="str">
         <f>NALB!E76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+        <v>Pez espada del Atlántico Norte</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
+      <c r="B77" s="10" t="str">
+        <f>NALB!B77</f>
+        <v>sp3_link</v>
       </c>
       <c r="C77" s="10" t="str">
         <f>NALB!C77</f>
-        <v>Other Species</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
       </c>
       <c r="D77" s="10" t="str">
         <f>NALB!D77</f>
-        <v>Autres espèces</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
       </c>
       <c r="E77" s="10" t="str">
         <f>NALB!E77</f>
-        <v>Otras especies</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>227</v>
+      <c r="B78" s="10" t="str">
+        <f>NALB!B78</f>
+        <v>sp4</v>
       </c>
       <c r="C78" s="10" t="str">
         <f>NALB!C78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+        <v>West Atlantic Skipjack</v>
       </c>
       <c r="D78" s="10" t="str">
         <f>NALB!D78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+        <v>Listao de l’Atlantique Ouest</v>
       </c>
       <c r="E78" s="10" t="str">
         <f>NALB!E78</f>
+        <v>Listado del Atlántico Oeste</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="10" t="str">
+        <f>NALB!B79</f>
+        <v>sp4_link</v>
+      </c>
+      <c r="C79" s="10" t="str">
+        <f>NALB!C79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+      </c>
+      <c r="D79" s="10" t="str">
+        <f>NALB!D79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+      </c>
+      <c r="E79" s="10" t="str">
+        <f>NALB!E79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="10" t="str">
+        <f>NALB!B80</f>
+        <v>sp5</v>
+      </c>
+      <c r="C80" s="10" t="str">
+        <f>NALB!C80</f>
+        <v>Multi-stocks Tropical Tunas</v>
+      </c>
+      <c r="D80" s="10" t="str">
+        <f>NALB!D80</f>
+        <v>Thonidés tropicaux multi-stocks</v>
+      </c>
+      <c r="E80" s="10" t="str">
+        <f>NALB!E80</f>
+        <v>Túnidos tropicales multistocks</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="10" t="str">
+        <f>NALB!B81</f>
+        <v>sp5_link</v>
+      </c>
+      <c r="C81" s="10" t="str">
+        <f>NALB!C81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+      </c>
+      <c r="D81" s="10" t="str">
+        <f>NALB!D81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+      </c>
+      <c r="E81" s="10" t="str">
+        <f>NALB!E81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="10" t="str">
+        <f>NALB!B82</f>
+        <v>sp6</v>
+      </c>
+      <c r="C82" s="10" t="str">
+        <f>NALB!C82</f>
+        <v>Other Species</v>
+      </c>
+      <c r="D82" s="10" t="str">
+        <f>NALB!D82</f>
+        <v>Autres espèces</v>
+      </c>
+      <c r="E82" s="10" t="str">
+        <f>NALB!E82</f>
+        <v>Otras especies</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="10" t="str">
+        <f>NALB!B83</f>
+        <v>sp6_link</v>
+      </c>
+      <c r="C83" s="10" t="str">
+        <f>NALB!C83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+      </c>
+      <c r="D83" s="10" t="str">
+        <f>NALB!D83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+      </c>
+      <c r="E83" s="10" t="str">
+        <f>NALB!E83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="10" t="str">
+        <f>NALB!B84</f>
+        <v>ref_link</v>
+      </c>
+      <c r="C84" s="10" t="str">
+        <f>NALB!C84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="D84" s="10" t="str">
+        <f>NALB!D84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E84" s="10" t="str">
+        <f>NALB!E84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
       </c>
     </row>
   </sheetData>
@@ -7344,6 +8857,7 @@
     <hyperlink ref="C23" r:id="rId5" xr:uid="{2DF4C259-4607-4F97-B218-83DD7893748B}"/>
     <hyperlink ref="C25" r:id="rId6" xr:uid="{5C6B6C43-4D24-4D47-B84C-335B2C9934C4}"/>
     <hyperlink ref="C27" r:id="rId7" xr:uid="{BA34DC44-F31E-4B7C-9DFD-2CD20A41997D}"/>
+    <hyperlink ref="C62" r:id="rId8" location="bft" xr:uid="{3E18A1C3-DFFA-44FC-8984-E0D335698383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7351,10 +8865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED321712-8BB2-45A5-BC6D-7E5DD13D7A0F}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A61" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8122,7 +9636,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>531</v>
@@ -8250,8 +9764,9 @@
       <c r="A52" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>198</v>
+      <c r="B52" s="12" t="str">
+        <f>NALB!B52</f>
+        <v>Title10</v>
       </c>
       <c r="C52" s="12" t="str">
         <f>NALB!C52</f>
@@ -8266,14 +9781,15 @@
         <v>Referencias</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="12" t="str">
+      <c r="B53" s="12" t="str">
+        <f>NALB!B53</f>
+        <v>note_use1</v>
+      </c>
+      <c r="C53" s="10" t="str">
         <f>NALB!C53</f>
         <v>Thank you for accessing the link to ICCAT MSE source codes.
 Please READ this page BEFORE accessing the source codes.
@@ -8281,7 +9797,7 @@
 Partial or other uses of the data, results, and graphs require the permission and authorization of the authors and the SCRS (ICCAT Secretariat).  
 Please review the confidentiality policy related to the request for authorization of data use.</v>
       </c>
-      <c r="D53" s="12" t="str">
+      <c r="D53" s="10" t="str">
         <f>NALB!D53</f>
         <v>Merci d’avoir accédé au lien des codes sources de l’EEM ICCAT.
 Veuillez LIRE cette page AVANT d’accéder aux codes sources.
@@ -8289,7 +9805,7 @@
 Toute utilisation partielle ou autre des données, résultats et graphiques nécessite la permission et l’autorisation des auteurs et du SCRS (Secrétariat de l’ICCAT).
 Veuillez consulter la politique de confidentialité pour une demande d’autorisation d’utilisation des données.</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="E53" s="10" t="str">
         <f>NALB!E53</f>
         <v>Gracias por acceder al enlace de los códigos fuente de EEM de ICCAT.
 Por favor, LEA esta página ANTES de acceder a los códigos fuente.
@@ -8319,8 +9835,9 @@
       <c r="A55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>171</v>
+      <c r="B55" s="12" t="str">
+        <f>NALB!B55</f>
+        <v>note_use3</v>
       </c>
       <c r="C55" s="12" t="str">
         <f>NALB!C55</f>
@@ -8342,8 +9859,9 @@
       <c r="A56" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>200</v>
+      <c r="B56" s="12" t="str">
+        <f>NALB!B56</f>
+        <v>ref1</v>
       </c>
       <c r="C56" s="12" t="str">
         <f>NALB!C56</f>
@@ -8362,8 +9880,9 @@
       <c r="A57" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>580</v>
+      <c r="B57" s="12" t="str">
+        <f>NALB!B57</f>
+        <v>ref1txt</v>
       </c>
       <c r="C57" s="12" t="str">
         <f>NALB!C57</f>
@@ -8382,8 +9901,9 @@
       <c r="A58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>201</v>
+      <c r="B58" s="12" t="str">
+        <f>NALB!B58</f>
+        <v>ref2</v>
       </c>
       <c r="C58" s="12" t="str">
         <f>NALB!C58</f>
@@ -8402,8 +9922,9 @@
       <c r="A59" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>202</v>
+      <c r="B59" s="12" t="str">
+        <f>NALB!B59</f>
+        <v>ref3</v>
       </c>
       <c r="C59" s="12" t="str">
         <f>NALB!C59</f>
@@ -8422,8 +9943,9 @@
       <c r="A60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>203</v>
+      <c r="B60" s="12" t="str">
+        <f>NALB!B60</f>
+        <v>ref4</v>
       </c>
       <c r="C60" s="12" t="str">
         <f>NALB!C60</f>
@@ -8442,8 +9964,9 @@
       <c r="A61" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>204</v>
+      <c r="B61" s="12" t="str">
+        <f>NALB!B61</f>
+        <v>ref5</v>
       </c>
       <c r="C61" s="12" t="str">
         <f>NALB!C61</f>
@@ -8463,19 +9986,18 @@
         <v>4</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="12" t="str">
-        <f>NALB!C62</f>
-        <v>Updated: July 7, 2025</v>
-      </c>
-      <c r="D62" s="12" t="str">
-        <f>NALB!D62</f>
-        <v>Mis à jour : 7 juillet 2025</v>
-      </c>
-      <c r="E62" s="12" t="str">
-        <f>NALB!E62</f>
-        <v>Actualizado: 7 de julio de 2025</v>
+        <v>850</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>+C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="E62" s="16" t="str">
+        <f t="shared" ref="E62:E66" si="0">+D62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -8483,19 +10005,19 @@
         <v>4</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <f>NALB!C63</f>
-        <v>Copyright © 2025 ICCAT. All rights reserved</v>
-      </c>
-      <c r="D63" s="12" t="str">
-        <f>NALB!D63</f>
-        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
-      </c>
-      <c r="E63" s="12" t="str">
-        <f>NALB!E63</f>
-        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
+        <v>851</v>
+      </c>
+      <c r="C63" s="16" t="str">
+        <f>C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f t="shared" ref="D63:D66" si="1">+C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="E63" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -8503,19 +10025,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="12" t="str">
-        <f>NALB!C64</f>
-        <v>ICCAT MSE links</v>
-      </c>
-      <c r="D64" s="12" t="str">
-        <f>NALB!D64</f>
-        <v>Liens ICCAT MSE</v>
-      </c>
-      <c r="E64" s="12" t="str">
-        <f>NALB!E64</f>
-        <v>Enlaces ICCAT MSE</v>
+        <v>852</v>
+      </c>
+      <c r="C64" s="16" t="str">
+        <f t="shared" ref="C64:C66" si="2">C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="E64" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -8523,19 +10045,19 @@
         <v>4</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <f>NALB!C65</f>
-        <v>MSE Summary</v>
-      </c>
-      <c r="D65" s="12" t="str">
-        <f>NALB!D65</f>
-        <v>Résumé de l’MSE</v>
-      </c>
-      <c r="E65" s="12" t="str">
-        <f>NALB!E65</f>
-        <v>Resumen de MSE</v>
+        <v>853</v>
+      </c>
+      <c r="C65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="E65" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -8543,259 +10065,397 @@
         <v>4</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="12" t="str">
-        <f>NALB!C66</f>
-        <v>https://iccat.github.io/iccat-mse-web/</v>
-      </c>
-      <c r="D66" s="12" t="str">
-        <f>NALB!D66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
-      </c>
-      <c r="E66" s="12" t="str">
-        <f>NALB!E66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
+        <v>854</v>
+      </c>
+      <c r="C66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
+      </c>
+      <c r="E66" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#nswo</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>218</v>
+      <c r="B67" s="12" t="str">
+        <f>NALB!B67</f>
+        <v>date</v>
       </c>
       <c r="C67" s="12" t="str">
         <f>NALB!C67</f>
-        <v>North Atlantic Albacore</v>
+        <v>Updated: July 7, 2025</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>NALB!D67</f>
-        <v>Germon de l’Atlantique Nord</v>
+        <v>Mis à jour : 7 juillet 2025</v>
       </c>
       <c r="E67" s="12" t="str">
         <f>NALB!E67</f>
-        <v>Atún blanco del Atlántico Norte</v>
+        <v>Actualizado: 7 de julio de 2025</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>220</v>
+      <c r="B68" s="12" t="str">
+        <f>NALB!B68</f>
+        <v>fin</v>
       </c>
       <c r="C68" s="12" t="str">
         <f>NALB!C68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
+        <v>Copyright © 2025 ICCAT. All rights reserved</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>NALB!D68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
+        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
       </c>
       <c r="E68" s="12" t="str">
         <f>NALB!E68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>219</v>
+      <c r="B69" s="12" t="str">
+        <f>NALB!B69</f>
+        <v>Title11</v>
       </c>
       <c r="C69" s="12" t="str">
         <f>NALB!C69</f>
-        <v>Atlantic Bluefin Tuna</v>
+        <v>ICCAT MSE links</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>NALB!D69</f>
-        <v>Thon rouge de l’Atlantique</v>
+        <v>Liens ICCAT MSE</v>
       </c>
       <c r="E69" s="12" t="str">
         <f>NALB!E69</f>
-        <v>Atún rojo del Atlántico</v>
+        <v>Enlaces ICCAT MSE</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>221</v>
+      <c r="B70" s="12" t="str">
+        <f>NALB!B70</f>
+        <v>gen</v>
       </c>
       <c r="C70" s="12" t="str">
         <f>NALB!C70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
+        <v>MSE Summary</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>NALB!D70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
+        <v>Résumé de l’MSE</v>
       </c>
       <c r="E70" s="12" t="str">
         <f>NALB!E70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+        <v>Resumen de MSE</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>222</v>
+      <c r="B71" s="12" t="str">
+        <f>NALB!B71</f>
+        <v>gen_link</v>
       </c>
       <c r="C71" s="12" t="str">
         <f>NALB!C71</f>
-        <v>North Atlantic Swordfish</v>
+        <v>https://iccat.github.io/iccat-mse-web/</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>NALB!D71</f>
-        <v>Espadon de l’Atlantique Nord</v>
+        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
       </c>
       <c r="E71" s="12" t="str">
         <f>NALB!E71</f>
-        <v>Pez espada del Atlántico Norte</v>
+        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>223</v>
+      <c r="B72" s="12" t="str">
+        <f>NALB!B72</f>
+        <v>sp1</v>
       </c>
       <c r="C72" s="12" t="str">
         <f>NALB!C72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
+        <v>North Atlantic Albacore</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>NALB!D72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
+        <v>Germon de l’Atlantique Nord</v>
       </c>
       <c r="E72" s="12" t="str">
         <f>NALB!E72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+        <v>Atún blanco del Atlántico Norte</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>224</v>
+      <c r="B73" s="12" t="str">
+        <f>NALB!B73</f>
+        <v>sp1_link</v>
       </c>
       <c r="C73" s="12" t="str">
         <f>NALB!C73</f>
-        <v>West Atlantic Skipjack</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>NALB!D73</f>
-        <v>Listao de l’Atlantique Ouest</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
       </c>
       <c r="E73" s="12" t="str">
         <f>NALB!E73</f>
-        <v>Listado del Atlántico Oeste</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>229</v>
+      <c r="B74" s="12" t="str">
+        <f>NALB!B74</f>
+        <v>sp2</v>
       </c>
       <c r="C74" s="12" t="str">
         <f>NALB!C74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+        <v>Atlantic Bluefin Tuna</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>NALB!D74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+        <v>Thon rouge de l’Atlantique</v>
       </c>
       <c r="E74" s="12" t="str">
         <f>NALB!E74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+        <v>Atún rojo del Atlántico</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>225</v>
+      <c r="B75" s="12" t="str">
+        <f>NALB!B75</f>
+        <v>sp2_link</v>
       </c>
       <c r="C75" s="12" t="str">
         <f>NALB!C75</f>
-        <v>Multi-stocks Tropical Tunas</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>NALB!D75</f>
-        <v>Thonidés tropicaux multi-stocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
       </c>
       <c r="E75" s="12" t="str">
         <f>NALB!E75</f>
-        <v>Túnidos tropicales multistocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>228</v>
+      <c r="B76" s="12" t="str">
+        <f>NALB!B76</f>
+        <v>sp3</v>
       </c>
       <c r="C76" s="12" t="str">
         <f>NALB!C76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+        <v>North Atlantic Swordfish</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>NALB!D76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+        <v>Espadon de l’Atlantique Nord</v>
       </c>
       <c r="E76" s="12" t="str">
         <f>NALB!E76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+        <v>Pez espada del Atlántico Norte</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
+      <c r="B77" s="12" t="str">
+        <f>NALB!B77</f>
+        <v>sp3_link</v>
       </c>
       <c r="C77" s="12" t="str">
         <f>NALB!C77</f>
-        <v>Other Species</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>NALB!D77</f>
-        <v>Autres espèces</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
       </c>
       <c r="E77" s="12" t="str">
         <f>NALB!E77</f>
-        <v>Otras especies</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>227</v>
+      <c r="B78" s="12" t="str">
+        <f>NALB!B78</f>
+        <v>sp4</v>
       </c>
       <c r="C78" s="12" t="str">
         <f>NALB!C78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+        <v>West Atlantic Skipjack</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>NALB!D78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+        <v>Listao de l’Atlantique Ouest</v>
       </c>
       <c r="E78" s="12" t="str">
         <f>NALB!E78</f>
+        <v>Listado del Atlántico Oeste</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f>NALB!B79</f>
+        <v>sp4_link</v>
+      </c>
+      <c r="C79" s="12" t="str">
+        <f>NALB!C79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+      </c>
+      <c r="D79" s="12" t="str">
+        <f>NALB!D79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+      </c>
+      <c r="E79" s="12" t="str">
+        <f>NALB!E79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f>NALB!B80</f>
+        <v>sp5</v>
+      </c>
+      <c r="C80" s="12" t="str">
+        <f>NALB!C80</f>
+        <v>Multi-stocks Tropical Tunas</v>
+      </c>
+      <c r="D80" s="12" t="str">
+        <f>NALB!D80</f>
+        <v>Thonidés tropicaux multi-stocks</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f>NALB!E80</f>
+        <v>Túnidos tropicales multistocks</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f>NALB!B81</f>
+        <v>sp5_link</v>
+      </c>
+      <c r="C81" s="12" t="str">
+        <f>NALB!C81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+      </c>
+      <c r="D81" s="12" t="str">
+        <f>NALB!D81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+      </c>
+      <c r="E81" s="12" t="str">
+        <f>NALB!E81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>NALB!B82</f>
+        <v>sp6</v>
+      </c>
+      <c r="C82" s="12" t="str">
+        <f>NALB!C82</f>
+        <v>Other Species</v>
+      </c>
+      <c r="D82" s="12" t="str">
+        <f>NALB!D82</f>
+        <v>Autres espèces</v>
+      </c>
+      <c r="E82" s="12" t="str">
+        <f>NALB!E82</f>
+        <v>Otras especies</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f>NALB!B83</f>
+        <v>sp6_link</v>
+      </c>
+      <c r="C83" s="12" t="str">
+        <f>NALB!C83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>NALB!D83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <f>NALB!E83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="12" t="str">
+        <f>NALB!B84</f>
+        <v>ref_link</v>
+      </c>
+      <c r="C84" s="12" t="str">
+        <f>NALB!C84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="D84" s="12" t="str">
+        <f>NALB!D84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E84" s="12" t="str">
+        <f>NALB!E84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
       </c>
     </row>
   </sheetData>
@@ -8804,6 +10464,7 @@
     <hyperlink ref="E40" r:id="rId2" xr:uid="{370F4E38-6650-4924-9F07-5C1261B0A16C}"/>
     <hyperlink ref="C40" r:id="rId3" xr:uid="{5D6322FB-BD77-46D2-BB26-4B7D97447FA1}"/>
     <hyperlink ref="C25" r:id="rId4" xr:uid="{874DDE55-586D-4B76-81DE-9D0F04D9157C}"/>
+    <hyperlink ref="C62" r:id="rId5" location="nswo" xr:uid="{FF29D037-11F2-4FF5-9846-FD73557F052C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8811,10 +10472,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AD033-715C-473A-9A76-5E4A67337736}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A44" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9066,7 +10727,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>535</v>
@@ -9122,7 +10783,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>537</v>
@@ -9154,8 +10815,9 @@
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>185</v>
+      <c r="B19" s="12" t="str">
+        <f>NALB!B19</f>
+        <v>Title4</v>
       </c>
       <c r="C19" s="12" t="str">
         <f>NALB!C19</f>
@@ -9174,8 +10836,9 @@
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>186</v>
+      <c r="B20" s="12" t="str">
+        <f>NALB!B20</f>
+        <v>Title5</v>
       </c>
       <c r="C20" s="12" t="str">
         <f>NALB!C20</f>
@@ -9644,8 +11307,9 @@
       <c r="A52" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>198</v>
+      <c r="B52" s="12" t="str">
+        <f>NALB!B52</f>
+        <v>Title10</v>
       </c>
       <c r="C52" s="12" t="str">
         <f>NALB!C52</f>
@@ -9660,14 +11324,15 @@
         <v>Referencias</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="12" t="str">
+      <c r="B53" s="12" t="str">
+        <f>NALB!B53</f>
+        <v>note_use1</v>
+      </c>
+      <c r="C53" s="10" t="str">
         <f>NALB!C53</f>
         <v>Thank you for accessing the link to ICCAT MSE source codes.
 Please READ this page BEFORE accessing the source codes.
@@ -9675,7 +11340,7 @@
 Partial or other uses of the data, results, and graphs require the permission and authorization of the authors and the SCRS (ICCAT Secretariat).  
 Please review the confidentiality policy related to the request for authorization of data use.</v>
       </c>
-      <c r="D53" s="12" t="str">
+      <c r="D53" s="10" t="str">
         <f>NALB!D53</f>
         <v>Merci d’avoir accédé au lien des codes sources de l’EEM ICCAT.
 Veuillez LIRE cette page AVANT d’accéder aux codes sources.
@@ -9683,7 +11348,7 @@
 Toute utilisation partielle ou autre des données, résultats et graphiques nécessite la permission et l’autorisation des auteurs et du SCRS (Secrétariat de l’ICCAT).
 Veuillez consulter la politique de confidentialité pour une demande d’autorisation d’utilisation des données.</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="E53" s="10" t="str">
         <f>NALB!E53</f>
         <v>Gracias por acceder al enlace de los códigos fuente de EEM de ICCAT.
 Por favor, LEA esta página ANTES de acceder a los códigos fuente.
@@ -9713,8 +11378,9 @@
       <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>171</v>
+      <c r="B55" s="12" t="str">
+        <f>NALB!B55</f>
+        <v>note_use3</v>
       </c>
       <c r="C55" s="12" t="str">
         <f>NALB!C55</f>
@@ -9736,8 +11402,9 @@
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>200</v>
+      <c r="B56" s="12" t="str">
+        <f>NALB!B56</f>
+        <v>ref1</v>
       </c>
       <c r="C56" s="12" t="str">
         <f>NALB!C56</f>
@@ -9756,8 +11423,9 @@
       <c r="A57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>580</v>
+      <c r="B57" s="12" t="str">
+        <f>NALB!B57</f>
+        <v>ref1txt</v>
       </c>
       <c r="C57" s="12" t="str">
         <f>NALB!C57</f>
@@ -9776,8 +11444,9 @@
       <c r="A58" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>201</v>
+      <c r="B58" s="12" t="str">
+        <f>NALB!B58</f>
+        <v>ref2</v>
       </c>
       <c r="C58" s="12" t="str">
         <f>NALB!C58</f>
@@ -9796,8 +11465,9 @@
       <c r="A59" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>202</v>
+      <c r="B59" s="12" t="str">
+        <f>NALB!B59</f>
+        <v>ref3</v>
       </c>
       <c r="C59" s="12" t="str">
         <f>NALB!C59</f>
@@ -9816,8 +11486,9 @@
       <c r="A60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>203</v>
+      <c r="B60" s="12" t="str">
+        <f>NALB!B60</f>
+        <v>ref4</v>
       </c>
       <c r="C60" s="12" t="str">
         <f>NALB!C60</f>
@@ -9836,8 +11507,9 @@
       <c r="A61" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>204</v>
+      <c r="B61" s="12" t="str">
+        <f>NALB!B61</f>
+        <v>ref5</v>
       </c>
       <c r="C61" s="12" t="str">
         <f>NALB!C61</f>
@@ -9857,19 +11529,18 @@
         <v>5</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="12" t="str">
-        <f>NALB!C62</f>
-        <v>Updated: July 7, 2025</v>
-      </c>
-      <c r="D62" s="12" t="str">
-        <f>NALB!D62</f>
-        <v>Mis à jour : 7 juillet 2025</v>
-      </c>
-      <c r="E62" s="12" t="str">
-        <f>NALB!E62</f>
-        <v>Actualizado: 7 de julio de 2025</v>
+        <v>850</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>+C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="E62" s="16" t="str">
+        <f t="shared" ref="E62:E66" si="0">+D62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -9877,19 +11548,19 @@
         <v>5</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <f>NALB!C63</f>
-        <v>Copyright © 2025 ICCAT. All rights reserved</v>
-      </c>
-      <c r="D63" s="12" t="str">
-        <f>NALB!D63</f>
-        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
-      </c>
-      <c r="E63" s="12" t="str">
-        <f>NALB!E63</f>
-        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
+        <v>851</v>
+      </c>
+      <c r="C63" s="16" t="str">
+        <f>C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f t="shared" ref="D63:D66" si="1">+C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="E63" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -9897,19 +11568,19 @@
         <v>5</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="12" t="str">
-        <f>NALB!C64</f>
-        <v>ICCAT MSE links</v>
-      </c>
-      <c r="D64" s="12" t="str">
-        <f>NALB!D64</f>
-        <v>Liens ICCAT MSE</v>
-      </c>
-      <c r="E64" s="12" t="str">
-        <f>NALB!E64</f>
-        <v>Enlaces ICCAT MSE</v>
+        <v>852</v>
+      </c>
+      <c r="C64" s="16" t="str">
+        <f t="shared" ref="C64:C66" si="2">C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="E64" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -9917,19 +11588,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <f>NALB!C65</f>
-        <v>MSE Summary</v>
-      </c>
-      <c r="D65" s="12" t="str">
-        <f>NALB!D65</f>
-        <v>Résumé de l’MSE</v>
-      </c>
-      <c r="E65" s="12" t="str">
-        <f>NALB!E65</f>
-        <v>Resumen de MSE</v>
+        <v>853</v>
+      </c>
+      <c r="C65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="E65" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -9937,264 +11608,403 @@
         <v>5</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="12" t="str">
-        <f>NALB!C66</f>
-        <v>https://iccat.github.io/iccat-mse-web/</v>
-      </c>
-      <c r="D66" s="12" t="str">
-        <f>NALB!D66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
-      </c>
-      <c r="E66" s="12" t="str">
-        <f>NALB!E66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
+        <v>854</v>
+      </c>
+      <c r="C66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
+      </c>
+      <c r="E66" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#wskj</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>218</v>
+      <c r="B67" s="12" t="str">
+        <f>NALB!B67</f>
+        <v>date</v>
       </c>
       <c r="C67" s="12" t="str">
         <f>NALB!C67</f>
-        <v>North Atlantic Albacore</v>
+        <v>Updated: July 7, 2025</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>NALB!D67</f>
-        <v>Germon de l’Atlantique Nord</v>
+        <v>Mis à jour : 7 juillet 2025</v>
       </c>
       <c r="E67" s="12" t="str">
         <f>NALB!E67</f>
-        <v>Atún blanco del Atlántico Norte</v>
+        <v>Actualizado: 7 de julio de 2025</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>220</v>
+      <c r="B68" s="12" t="str">
+        <f>NALB!B68</f>
+        <v>fin</v>
       </c>
       <c r="C68" s="12" t="str">
         <f>NALB!C68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
+        <v>Copyright © 2025 ICCAT. All rights reserved</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>NALB!D68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
+        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
       </c>
       <c r="E68" s="12" t="str">
         <f>NALB!E68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>219</v>
+      <c r="B69" s="12" t="str">
+        <f>NALB!B69</f>
+        <v>Title11</v>
       </c>
       <c r="C69" s="12" t="str">
         <f>NALB!C69</f>
-        <v>Atlantic Bluefin Tuna</v>
+        <v>ICCAT MSE links</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>NALB!D69</f>
-        <v>Thon rouge de l’Atlantique</v>
+        <v>Liens ICCAT MSE</v>
       </c>
       <c r="E69" s="12" t="str">
         <f>NALB!E69</f>
-        <v>Atún rojo del Atlántico</v>
+        <v>Enlaces ICCAT MSE</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>221</v>
+      <c r="B70" s="12" t="str">
+        <f>NALB!B70</f>
+        <v>gen</v>
       </c>
       <c r="C70" s="12" t="str">
         <f>NALB!C70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
+        <v>MSE Summary</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>NALB!D70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
+        <v>Résumé de l’MSE</v>
       </c>
       <c r="E70" s="12" t="str">
         <f>NALB!E70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+        <v>Resumen de MSE</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>222</v>
+      <c r="B71" s="12" t="str">
+        <f>NALB!B71</f>
+        <v>gen_link</v>
       </c>
       <c r="C71" s="12" t="str">
         <f>NALB!C71</f>
-        <v>North Atlantic Swordfish</v>
+        <v>https://iccat.github.io/iccat-mse-web/</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>NALB!D71</f>
-        <v>Espadon de l’Atlantique Nord</v>
+        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
       </c>
       <c r="E71" s="12" t="str">
         <f>NALB!E71</f>
-        <v>Pez espada del Atlántico Norte</v>
+        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>223</v>
+      <c r="B72" s="12" t="str">
+        <f>NALB!B72</f>
+        <v>sp1</v>
       </c>
       <c r="C72" s="12" t="str">
         <f>NALB!C72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
+        <v>North Atlantic Albacore</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>NALB!D72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
+        <v>Germon de l’Atlantique Nord</v>
       </c>
       <c r="E72" s="12" t="str">
         <f>NALB!E72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+        <v>Atún blanco del Atlántico Norte</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>224</v>
+      <c r="B73" s="12" t="str">
+        <f>NALB!B73</f>
+        <v>sp1_link</v>
       </c>
       <c r="C73" s="12" t="str">
         <f>NALB!C73</f>
-        <v>West Atlantic Skipjack</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>NALB!D73</f>
-        <v>Listao de l’Atlantique Ouest</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
       </c>
       <c r="E73" s="12" t="str">
         <f>NALB!E73</f>
-        <v>Listado del Atlántico Oeste</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>229</v>
+      <c r="B74" s="12" t="str">
+        <f>NALB!B74</f>
+        <v>sp2</v>
       </c>
       <c r="C74" s="12" t="str">
         <f>NALB!C74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+        <v>Atlantic Bluefin Tuna</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>NALB!D74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+        <v>Thon rouge de l’Atlantique</v>
       </c>
       <c r="E74" s="12" t="str">
         <f>NALB!E74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+        <v>Atún rojo del Atlántico</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>225</v>
+      <c r="B75" s="12" t="str">
+        <f>NALB!B75</f>
+        <v>sp2_link</v>
       </c>
       <c r="C75" s="12" t="str">
         <f>NALB!C75</f>
-        <v>Multi-stocks Tropical Tunas</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>NALB!D75</f>
-        <v>Thonidés tropicaux multi-stocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
       </c>
       <c r="E75" s="12" t="str">
         <f>NALB!E75</f>
-        <v>Túnidos tropicales multistocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>228</v>
+      <c r="B76" s="12" t="str">
+        <f>NALB!B76</f>
+        <v>sp3</v>
       </c>
       <c r="C76" s="12" t="str">
         <f>NALB!C76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+        <v>North Atlantic Swordfish</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>NALB!D76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+        <v>Espadon de l’Atlantique Nord</v>
       </c>
       <c r="E76" s="12" t="str">
         <f>NALB!E76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+        <v>Pez espada del Atlántico Norte</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
+      <c r="B77" s="12" t="str">
+        <f>NALB!B77</f>
+        <v>sp3_link</v>
       </c>
       <c r="C77" s="12" t="str">
         <f>NALB!C77</f>
-        <v>Other Species</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>NALB!D77</f>
-        <v>Autres espèces</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
       </c>
       <c r="E77" s="12" t="str">
         <f>NALB!E77</f>
-        <v>Otras especies</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>227</v>
+      <c r="B78" s="12" t="str">
+        <f>NALB!B78</f>
+        <v>sp4</v>
       </c>
       <c r="C78" s="12" t="str">
         <f>NALB!C78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+        <v>West Atlantic Skipjack</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>NALB!D78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+        <v>Listao de l’Atlantique Ouest</v>
       </c>
       <c r="E78" s="12" t="str">
         <f>NALB!E78</f>
+        <v>Listado del Atlántico Oeste</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f>NALB!B79</f>
+        <v>sp4_link</v>
+      </c>
+      <c r="C79" s="12" t="str">
+        <f>NALB!C79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+      </c>
+      <c r="D79" s="12" t="str">
+        <f>NALB!D79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+      </c>
+      <c r="E79" s="12" t="str">
+        <f>NALB!E79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f>NALB!B80</f>
+        <v>sp5</v>
+      </c>
+      <c r="C80" s="12" t="str">
+        <f>NALB!C80</f>
+        <v>Multi-stocks Tropical Tunas</v>
+      </c>
+      <c r="D80" s="12" t="str">
+        <f>NALB!D80</f>
+        <v>Thonidés tropicaux multi-stocks</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f>NALB!E80</f>
+        <v>Túnidos tropicales multistocks</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f>NALB!B81</f>
+        <v>sp5_link</v>
+      </c>
+      <c r="C81" s="12" t="str">
+        <f>NALB!C81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+      </c>
+      <c r="D81" s="12" t="str">
+        <f>NALB!D81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+      </c>
+      <c r="E81" s="12" t="str">
+        <f>NALB!E81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>NALB!B82</f>
+        <v>sp6</v>
+      </c>
+      <c r="C82" s="12" t="str">
+        <f>NALB!C82</f>
+        <v>Other Species</v>
+      </c>
+      <c r="D82" s="12" t="str">
+        <f>NALB!D82</f>
+        <v>Autres espèces</v>
+      </c>
+      <c r="E82" s="12" t="str">
+        <f>NALB!E82</f>
+        <v>Otras especies</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f>NALB!B83</f>
+        <v>sp6_link</v>
+      </c>
+      <c r="C83" s="12" t="str">
+        <f>NALB!C83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>NALB!D83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <f>NALB!E83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="12" t="str">
+        <f>NALB!B84</f>
+        <v>ref_link</v>
+      </c>
+      <c r="C84" s="12" t="str">
+        <f>NALB!C84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="D84" s="12" t="str">
+        <f>NALB!D84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E84" s="12" t="str">
+        <f>NALB!E84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" xr:uid="{2855E3C6-9ADA-4DCE-932F-0DB63DD28BFF}"/>
+    <hyperlink ref="C62" r:id="rId2" location="wskj" xr:uid="{C16BE78C-5C2F-460E-AA2F-E43239235C20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10202,10 +12012,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967FAA02-3B94-4CBB-829A-728CAD574313}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A43" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10313,13 +12123,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10330,13 +12140,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10347,7 +12157,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>477</v>
@@ -10364,13 +12174,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10430,8 +12240,9 @@
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
+      <c r="B13" s="12" t="str">
+        <f>NALB!B13</f>
+        <v>Title2</v>
       </c>
       <c r="C13" s="12" t="str">
         <f>NALB!C13</f>
@@ -10454,13 +12265,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10486,8 +12297,9 @@
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>184</v>
+      <c r="B16" s="12" t="str">
+        <f>NALB!B16</f>
+        <v>Title3</v>
       </c>
       <c r="C16" s="12" t="str">
         <f>NALB!C16</f>
@@ -10510,13 +12322,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -10542,8 +12354,9 @@
       <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>185</v>
+      <c r="B19" s="12" t="str">
+        <f>NALB!B19</f>
+        <v>Title4</v>
       </c>
       <c r="C19" s="12" t="str">
         <f>NALB!C19</f>
@@ -10562,8 +12375,9 @@
       <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>186</v>
+      <c r="B20" s="12" t="str">
+        <f>NALB!B20</f>
+        <v>Title5</v>
       </c>
       <c r="C20" s="12" t="str">
         <f>NALB!C20</f>
@@ -10586,13 +12400,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10612,7 +12426,7 @@
         <v>154</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D23" s="22" t="str">
         <f>C23</f>
@@ -10673,8 +12487,9 @@
       <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>189</v>
+      <c r="B28" s="12" t="str">
+        <f>NALB!B28</f>
+        <v>Title6</v>
       </c>
       <c r="C28" s="12" t="str">
         <f>NALB!C28</f>
@@ -10797,8 +12612,9 @@
       <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>193</v>
+      <c r="B35" s="12" t="str">
+        <f>NALB!B35</f>
+        <v>Title7</v>
       </c>
       <c r="C35" s="12" t="str">
         <f>NALB!C35</f>
@@ -10821,21 +12637,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>700</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>195</v>
+      <c r="B37" s="12" t="str">
+        <f>NALB!B37</f>
+        <v>Title8</v>
       </c>
       <c r="C37" s="12" t="str">
         <f>NALB!C37</f>
@@ -10935,8 +12752,9 @@
       <c r="A44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>196</v>
+      <c r="B44" s="12" t="str">
+        <f>NALB!B44</f>
+        <v>Title9</v>
       </c>
       <c r="C44" s="12" t="str">
         <f>NALB!C44</f>
@@ -11031,8 +12849,9 @@
       <c r="A52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>198</v>
+      <c r="B52" s="12" t="str">
+        <f>NALB!B52</f>
+        <v>Title10</v>
       </c>
       <c r="C52" s="12" t="str">
         <f>NALB!C52</f>
@@ -11047,14 +12866,15 @@
         <v>Referencias</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="12" t="str">
+      <c r="B53" s="12" t="str">
+        <f>NALB!B53</f>
+        <v>note_use1</v>
+      </c>
+      <c r="C53" s="10" t="str">
         <f>NALB!C53</f>
         <v>Thank you for accessing the link to ICCAT MSE source codes.
 Please READ this page BEFORE accessing the source codes.
@@ -11062,7 +12882,7 @@
 Partial or other uses of the data, results, and graphs require the permission and authorization of the authors and the SCRS (ICCAT Secretariat).  
 Please review the confidentiality policy related to the request for authorization of data use.</v>
       </c>
-      <c r="D53" s="12" t="str">
+      <c r="D53" s="10" t="str">
         <f>NALB!D53</f>
         <v>Merci d’avoir accédé au lien des codes sources de l’EEM ICCAT.
 Veuillez LIRE cette page AVANT d’accéder aux codes sources.
@@ -11070,7 +12890,7 @@
 Toute utilisation partielle ou autre des données, résultats et graphiques nécessite la permission et l’autorisation des auteurs et du SCRS (Secrétariat de l’ICCAT).
 Veuillez consulter la politique de confidentialité pour une demande d’autorisation d’utilisation des données.</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="E53" s="10" t="str">
         <f>NALB!E53</f>
         <v>Gracias por acceder al enlace de los códigos fuente de EEM de ICCAT.
 Por favor, LEA esta página ANTES de acceder a los códigos fuente.
@@ -11100,8 +12920,9 @@
       <c r="A55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>171</v>
+      <c r="B55" s="12" t="str">
+        <f>NALB!B55</f>
+        <v>note_use3</v>
       </c>
       <c r="C55" s="12" t="str">
         <f>NALB!C55</f>
@@ -11123,8 +12944,9 @@
       <c r="A56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>200</v>
+      <c r="B56" s="12" t="str">
+        <f>NALB!B56</f>
+        <v>ref1</v>
       </c>
       <c r="C56" s="12" t="str">
         <f>NALB!C56</f>
@@ -11143,8 +12965,9 @@
       <c r="A57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>580</v>
+      <c r="B57" s="12" t="str">
+        <f>NALB!B57</f>
+        <v>ref1txt</v>
       </c>
       <c r="C57" s="12" t="str">
         <f>NALB!C57</f>
@@ -11163,8 +12986,9 @@
       <c r="A58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>201</v>
+      <c r="B58" s="12" t="str">
+        <f>NALB!B58</f>
+        <v>ref2</v>
       </c>
       <c r="C58" s="12" t="str">
         <f>NALB!C58</f>
@@ -11183,8 +13007,9 @@
       <c r="A59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>202</v>
+      <c r="B59" s="12" t="str">
+        <f>NALB!B59</f>
+        <v>ref3</v>
       </c>
       <c r="C59" s="12" t="str">
         <f>NALB!C59</f>
@@ -11203,8 +13028,9 @@
       <c r="A60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>203</v>
+      <c r="B60" s="12" t="str">
+        <f>NALB!B60</f>
+        <v>ref4</v>
       </c>
       <c r="C60" s="12" t="str">
         <f>NALB!C60</f>
@@ -11223,8 +13049,9 @@
       <c r="A61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>204</v>
+      <c r="B61" s="12" t="str">
+        <f>NALB!B61</f>
+        <v>ref5</v>
       </c>
       <c r="C61" s="12" t="str">
         <f>NALB!C61</f>
@@ -11244,19 +13071,18 @@
         <v>11</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="12" t="str">
-        <f>NALB!C62</f>
-        <v>Updated: July 7, 2025</v>
-      </c>
-      <c r="D62" s="12" t="str">
-        <f>NALB!D62</f>
-        <v>Mis à jour : 7 juillet 2025</v>
-      </c>
-      <c r="E62" s="12" t="str">
-        <f>NALB!E62</f>
-        <v>Actualizado: 7 de julio de 2025</v>
+        <v>850</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>+C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="E62" s="16" t="str">
+        <f t="shared" ref="E62:E66" si="0">+D62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -11264,19 +13090,19 @@
         <v>11</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <f>NALB!C63</f>
-        <v>Copyright © 2025 ICCAT. All rights reserved</v>
-      </c>
-      <c r="D63" s="12" t="str">
-        <f>NALB!D63</f>
-        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
-      </c>
-      <c r="E63" s="12" t="str">
-        <f>NALB!E63</f>
-        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
+        <v>851</v>
+      </c>
+      <c r="C63" s="16" t="str">
+        <f>C62</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f t="shared" ref="D63:D66" si="1">+C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="E63" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -11284,19 +13110,19 @@
         <v>11</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="12" t="str">
-        <f>NALB!C64</f>
-        <v>ICCAT MSE links</v>
-      </c>
-      <c r="D64" s="12" t="str">
-        <f>NALB!D64</f>
-        <v>Liens ICCAT MSE</v>
-      </c>
-      <c r="E64" s="12" t="str">
-        <f>NALB!E64</f>
-        <v>Enlaces ICCAT MSE</v>
+        <v>852</v>
+      </c>
+      <c r="C64" s="16" t="str">
+        <f t="shared" ref="C64:C66" si="2">C63</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="E64" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -11304,19 +13130,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <f>NALB!C65</f>
-        <v>MSE Summary</v>
-      </c>
-      <c r="D65" s="12" t="str">
-        <f>NALB!D65</f>
-        <v>Résumé de l’MSE</v>
-      </c>
-      <c r="E65" s="12" t="str">
-        <f>NALB!E65</f>
-        <v>Resumen de MSE</v>
+        <v>853</v>
+      </c>
+      <c r="C65" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="E65" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -11324,264 +13150,403 @@
         <v>11</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="12" t="str">
-        <f>NALB!C66</f>
-        <v>https://iccat.github.io/iccat-mse-web/</v>
-      </c>
-      <c r="D66" s="12" t="str">
-        <f>NALB!D66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
-      </c>
-      <c r="E66" s="12" t="str">
-        <f>NALB!E66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
+        <v>854</v>
+      </c>
+      <c r="C66" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
+      </c>
+      <c r="E66" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#multiTT</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>218</v>
+      <c r="B67" s="12" t="str">
+        <f>NALB!B67</f>
+        <v>date</v>
       </c>
       <c r="C67" s="12" t="str">
         <f>NALB!C67</f>
-        <v>North Atlantic Albacore</v>
+        <v>Updated: July 7, 2025</v>
       </c>
       <c r="D67" s="12" t="str">
         <f>NALB!D67</f>
-        <v>Germon de l’Atlantique Nord</v>
+        <v>Mis à jour : 7 juillet 2025</v>
       </c>
       <c r="E67" s="12" t="str">
         <f>NALB!E67</f>
-        <v>Atún blanco del Atlántico Norte</v>
+        <v>Actualizado: 7 de julio de 2025</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>220</v>
+      <c r="B68" s="12" t="str">
+        <f>NALB!B68</f>
+        <v>fin</v>
       </c>
       <c r="C68" s="12" t="str">
         <f>NALB!C68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
+        <v>Copyright © 2025 ICCAT. All rights reserved</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>NALB!D68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
+        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
       </c>
       <c r="E68" s="12" t="str">
         <f>NALB!E68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>219</v>
+      <c r="B69" s="12" t="str">
+        <f>NALB!B69</f>
+        <v>Title11</v>
       </c>
       <c r="C69" s="12" t="str">
         <f>NALB!C69</f>
-        <v>Atlantic Bluefin Tuna</v>
+        <v>ICCAT MSE links</v>
       </c>
       <c r="D69" s="12" t="str">
         <f>NALB!D69</f>
-        <v>Thon rouge de l’Atlantique</v>
+        <v>Liens ICCAT MSE</v>
       </c>
       <c r="E69" s="12" t="str">
         <f>NALB!E69</f>
-        <v>Atún rojo del Atlántico</v>
+        <v>Enlaces ICCAT MSE</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>221</v>
+      <c r="B70" s="12" t="str">
+        <f>NALB!B70</f>
+        <v>gen</v>
       </c>
       <c r="C70" s="12" t="str">
         <f>NALB!C70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
+        <v>MSE Summary</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>NALB!D70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
+        <v>Résumé de l’MSE</v>
       </c>
       <c r="E70" s="12" t="str">
         <f>NALB!E70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+        <v>Resumen de MSE</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>222</v>
+      <c r="B71" s="12" t="str">
+        <f>NALB!B71</f>
+        <v>gen_link</v>
       </c>
       <c r="C71" s="12" t="str">
         <f>NALB!C71</f>
-        <v>North Atlantic Swordfish</v>
+        <v>https://iccat.github.io/iccat-mse-web/</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>NALB!D71</f>
-        <v>Espadon de l’Atlantique Nord</v>
+        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
       </c>
       <c r="E71" s="12" t="str">
         <f>NALB!E71</f>
-        <v>Pez espada del Atlántico Norte</v>
+        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>223</v>
+      <c r="B72" s="12" t="str">
+        <f>NALB!B72</f>
+        <v>sp1</v>
       </c>
       <c r="C72" s="12" t="str">
         <f>NALB!C72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
+        <v>North Atlantic Albacore</v>
       </c>
       <c r="D72" s="12" t="str">
         <f>NALB!D72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
+        <v>Germon de l’Atlantique Nord</v>
       </c>
       <c r="E72" s="12" t="str">
         <f>NALB!E72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+        <v>Atún blanco del Atlántico Norte</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>224</v>
+      <c r="B73" s="12" t="str">
+        <f>NALB!B73</f>
+        <v>sp1_link</v>
       </c>
       <c r="C73" s="12" t="str">
         <f>NALB!C73</f>
-        <v>West Atlantic Skipjack</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
       </c>
       <c r="D73" s="12" t="str">
         <f>NALB!D73</f>
-        <v>Listao de l’Atlantique Ouest</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
       </c>
       <c r="E73" s="12" t="str">
         <f>NALB!E73</f>
-        <v>Listado del Atlántico Oeste</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>229</v>
+      <c r="B74" s="12" t="str">
+        <f>NALB!B74</f>
+        <v>sp2</v>
       </c>
       <c r="C74" s="12" t="str">
         <f>NALB!C74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+        <v>Atlantic Bluefin Tuna</v>
       </c>
       <c r="D74" s="12" t="str">
         <f>NALB!D74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+        <v>Thon rouge de l’Atlantique</v>
       </c>
       <c r="E74" s="12" t="str">
         <f>NALB!E74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+        <v>Atún rojo del Atlántico</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>225</v>
+      <c r="B75" s="12" t="str">
+        <f>NALB!B75</f>
+        <v>sp2_link</v>
       </c>
       <c r="C75" s="12" t="str">
         <f>NALB!C75</f>
-        <v>Multi-stocks Tropical Tunas</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
       </c>
       <c r="D75" s="12" t="str">
         <f>NALB!D75</f>
-        <v>Thonidés tropicaux multi-stocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
       </c>
       <c r="E75" s="12" t="str">
         <f>NALB!E75</f>
-        <v>Túnidos tropicales multistocks</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>228</v>
+      <c r="B76" s="12" t="str">
+        <f>NALB!B76</f>
+        <v>sp3</v>
       </c>
       <c r="C76" s="12" t="str">
         <f>NALB!C76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+        <v>North Atlantic Swordfish</v>
       </c>
       <c r="D76" s="12" t="str">
         <f>NALB!D76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+        <v>Espadon de l’Atlantique Nord</v>
       </c>
       <c r="E76" s="12" t="str">
         <f>NALB!E76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+        <v>Pez espada del Atlántico Norte</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
+      <c r="B77" s="12" t="str">
+        <f>NALB!B77</f>
+        <v>sp3_link</v>
       </c>
       <c r="C77" s="12" t="str">
         <f>NALB!C77</f>
-        <v>Other Species</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
       </c>
       <c r="D77" s="12" t="str">
         <f>NALB!D77</f>
-        <v>Autres espèces</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
       </c>
       <c r="E77" s="12" t="str">
         <f>NALB!E77</f>
-        <v>Otras especies</v>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>227</v>
+      <c r="B78" s="12" t="str">
+        <f>NALB!B78</f>
+        <v>sp4</v>
       </c>
       <c r="C78" s="12" t="str">
         <f>NALB!C78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+        <v>West Atlantic Skipjack</v>
       </c>
       <c r="D78" s="12" t="str">
         <f>NALB!D78</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+        <v>Listao de l’Atlantique Ouest</v>
       </c>
       <c r="E78" s="12" t="str">
         <f>NALB!E78</f>
+        <v>Listado del Atlántico Oeste</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f>NALB!B79</f>
+        <v>sp4_link</v>
+      </c>
+      <c r="C79" s="12" t="str">
+        <f>NALB!C79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+      </c>
+      <c r="D79" s="12" t="str">
+        <f>NALB!D79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+      </c>
+      <c r="E79" s="12" t="str">
+        <f>NALB!E79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f>NALB!B80</f>
+        <v>sp5</v>
+      </c>
+      <c r="C80" s="12" t="str">
+        <f>NALB!C80</f>
+        <v>Multi-stocks Tropical Tunas</v>
+      </c>
+      <c r="D80" s="12" t="str">
+        <f>NALB!D80</f>
+        <v>Thonidés tropicaux multi-stocks</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f>NALB!E80</f>
+        <v>Túnidos tropicales multistocks</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f>NALB!B81</f>
+        <v>sp5_link</v>
+      </c>
+      <c r="C81" s="12" t="str">
+        <f>NALB!C81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+      </c>
+      <c r="D81" s="12" t="str">
+        <f>NALB!D81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+      </c>
+      <c r="E81" s="12" t="str">
+        <f>NALB!E81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>NALB!B82</f>
+        <v>sp6</v>
+      </c>
+      <c r="C82" s="12" t="str">
+        <f>NALB!C82</f>
+        <v>Other Species</v>
+      </c>
+      <c r="D82" s="12" t="str">
+        <f>NALB!D82</f>
+        <v>Autres espèces</v>
+      </c>
+      <c r="E82" s="12" t="str">
+        <f>NALB!E82</f>
+        <v>Otras especies</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f>NALB!B83</f>
+        <v>sp6_link</v>
+      </c>
+      <c r="C83" s="12" t="str">
+        <f>NALB!C83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>NALB!D83</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <f>NALB!E83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="12" t="str">
+        <f>NALB!B84</f>
+        <v>ref_link</v>
+      </c>
+      <c r="C84" s="12" t="str">
+        <f>NALB!C84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="D84" s="12" t="str">
+        <f>NALB!D84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E84" s="12" t="str">
+        <f>NALB!E84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" xr:uid="{1F22000B-8957-4EFD-BBD1-E8F324AE15BB}"/>
+    <hyperlink ref="C62" r:id="rId2" location="multiTT" xr:uid="{D34C81A3-563C-4E71-B66D-20D3505A3DF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11589,10 +13554,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9511CB39-5116-4D63-AC3B-362A0B840C08}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A28" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11687,10 +13652,10 @@
         <v>133</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11723,10 +13688,10 @@
         <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11740,10 +13705,10 @@
         <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
@@ -11757,10 +13722,10 @@
         <v>114</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11774,10 +13739,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -11788,13 +13753,13 @@
         <v>116</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -11827,10 +13792,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -11844,10 +13809,10 @@
         <v>122</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -11861,10 +13826,10 @@
         <v>123</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -11878,10 +13843,10 @@
         <v>113</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
@@ -11895,10 +13860,10 @@
         <v>124</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -11931,10 +13896,10 @@
         <v>134</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -11948,10 +13913,10 @@
         <v>122</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -11965,10 +13930,10 @@
         <v>135</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -11982,10 +13947,10 @@
         <v>136</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -11999,10 +13964,10 @@
         <v>137</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -12035,10 +14000,10 @@
         <v>138</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -12052,13 +14017,13 @@
         <v>128</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
@@ -12066,21 +14031,22 @@
         <v>127</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>574</v>
+        <v>831</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>762</v>
+        <v>832</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>763</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>198</v>
+      <c r="B28" s="10" t="str">
+        <f>NALB!B52</f>
+        <v>Title10</v>
       </c>
       <c r="C28" s="10" t="str">
         <f>NALB!C52</f>
@@ -12099,140 +14065,145 @@
       <c r="A29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>210</v>
+      <c r="B29" s="12" t="str">
+        <f>NALB!B56</f>
+        <v>ref1</v>
       </c>
       <c r="C29" s="12" t="str">
-        <f>NALB!C62</f>
-        <v>Updated: July 7, 2025</v>
+        <f>NALB!C56</f>
+        <v>Materials</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>NALB!D62</f>
-        <v>Mis à jour : 7 juillet 2025</v>
+        <f>NALB!D29</f>
+        <v>[**Rec. 21-04**](https://www.iccat.int/Documents/Recs/compendiopdf-f/2021-04-f.pdf)</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f>NALB!E62</f>
-        <v>Actualizado: 7 de julio de 2025</v>
+        <f>NALB!E29</f>
+        <v>[**Rec. 21-04**](https://www.iccat.int/Documents/Recs/compendiopdf-s/2021-04-s.pdf)</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>212</v>
+      <c r="B30" s="12" t="str">
+        <f>NALB!B57</f>
+        <v>ref1txt</v>
       </c>
       <c r="C30" s="12" t="str">
-        <f>NALB!C63</f>
-        <v>Copyright © 2025 ICCAT. All rights reserved</v>
+        <f>NALB!C57</f>
+        <v>More materials can be found in Reference</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>NALB!D63</f>
-        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
+        <f>NALB!D30</f>
+        <v>Prob. ≥ 60 % dans le quadrant vert</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f>NALB!E63</f>
-        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
+        <f>NALB!E30</f>
+        <v>Prob. ≥ 60 % en el cuadrante verde</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>215</v>
+      <c r="B31" s="12" t="str">
+        <f>NALB!B58</f>
+        <v>ref2</v>
       </c>
       <c r="C31" s="12" t="str">
-        <f>NALB!C64</f>
-        <v>ICCAT MSE links</v>
+        <f>NALB!C58</f>
+        <v>Rec/Res</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f>NALB!D64</f>
-        <v>Liens ICCAT MSE</v>
+        <f>NALB!D31</f>
+        <v>Diminuer F dès que possible lorsque B&lt;Bmsy</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f>NALB!E64</f>
-        <v>Enlaces ICCAT MSE</v>
+        <f>NALB!E31</f>
+        <v>Disminuya F lo antes posible cuando B&lt;Bmsy</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>214</v>
+      <c r="B32" s="12" t="str">
+        <f>NALB!B59</f>
+        <v>ref3</v>
       </c>
       <c r="C32" s="12" t="str">
-        <f>NALB!C65</f>
-        <v>MSE Summary</v>
+        <f>NALB!C59</f>
+        <v>Meetings</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f>NALB!D65</f>
-        <v>Résumé de l’MSE</v>
+        <f>NALB!D32</f>
+        <v>Maximiser les captures totales</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f>NALB!E65</f>
-        <v>Resumen de MSE</v>
+        <f>NALB!E32</f>
+        <v>Maximizar las capturas totales</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>217</v>
+      <c r="B33" s="12" t="str">
+        <f>NALB!B60</f>
+        <v>ref4</v>
       </c>
       <c r="C33" s="12" t="str">
-        <f>NALB!C66</f>
-        <v>https://iccat.github.io/iccat-mse-web/</v>
+        <f>NALB!C60</f>
+        <v>SCRS Docs</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>NALB!D66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
+        <f>NALB!D33</f>
+        <v>Minimiser les fluctuations interannuelles des niveaux de TAC</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f>NALB!E66</f>
-        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
+        <f>NALB!E33</f>
+        <v>Minimizar las fluctuaciones interanuales en los niveles de TAC</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>218</v>
+      <c r="B34" s="12" t="str">
+        <f>NALB!B61</f>
+        <v>ref5</v>
       </c>
       <c r="C34" s="12" t="str">
-        <f>NALB!C67</f>
-        <v>North Atlantic Albacore</v>
-      </c>
-      <c r="D34" s="12" t="str">
-        <f>NALB!D67</f>
-        <v>Germon de l’Atlantique Nord</v>
-      </c>
-      <c r="E34" s="12" t="str">
-        <f>NALB!E67</f>
-        <v>Atún blanco del Atlántico Norte</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <f>NALB!C61</f>
+        <v>Others</v>
+      </c>
+      <c r="D34" s="12">
+        <f>NALB!D34</f>
+        <v>100</v>
+      </c>
+      <c r="E34" s="12">
+        <f>NALB!E34</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="12" t="str">
-        <f>NALB!C68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
-      </c>
-      <c r="D35" s="12" t="str">
-        <f>NALB!D68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
-      </c>
-      <c r="E35" s="12" t="str">
-        <f>NALB!E68</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+        <v>850</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="D35" s="16" t="str">
+        <f>+C35</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="E35" s="16" t="str">
+        <f t="shared" ref="E35:E39" si="2">+D35</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -12240,19 +14211,19 @@
         <v>13</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="12" t="str">
-        <f>NALB!C69</f>
-        <v>Atlantic Bluefin Tuna</v>
-      </c>
-      <c r="D36" s="12" t="str">
-        <f>NALB!D69</f>
-        <v>Thon rouge de l’Atlantique</v>
-      </c>
-      <c r="E36" s="12" t="str">
-        <f>NALB!E69</f>
-        <v>Atún rojo del Atlántico</v>
+        <v>851</v>
+      </c>
+      <c r="C36" s="16" t="str">
+        <f>C35</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="D36" s="16" t="str">
+        <f t="shared" ref="D36:D39" si="3">+C36</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="E36" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -12260,19 +14231,19 @@
         <v>13</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="12" t="str">
-        <f>NALB!C70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
-      </c>
-      <c r="D37" s="12" t="str">
-        <f>NALB!D70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
-      </c>
-      <c r="E37" s="12" t="str">
-        <f>NALB!E70</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+        <v>852</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f t="shared" ref="C37:C39" si="4">C36</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="D37" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="E37" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -12280,19 +14251,19 @@
         <v>13</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="12" t="str">
-        <f>NALB!C71</f>
-        <v>North Atlantic Swordfish</v>
-      </c>
-      <c r="D38" s="12" t="str">
-        <f>NALB!D71</f>
-        <v>Espadon de l’Atlantique Nord</v>
-      </c>
-      <c r="E38" s="12" t="str">
-        <f>NALB!E71</f>
-        <v>Pez espada del Atlántico Norte</v>
+        <v>853</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="D38" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="E38" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -12300,752 +14271,1223 @@
         <v>13</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="12" t="str">
-        <f>NALB!C72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
-      </c>
-      <c r="D39" s="12" t="str">
-        <f>NALB!D72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
-      </c>
-      <c r="E39" s="12" t="str">
-        <f>NALB!E72</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+        <v>854</v>
+      </c>
+      <c r="C39" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="D39" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
+      </c>
+      <c r="E39" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html#other-species</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>224</v>
+      <c r="B40" s="12" t="str">
+        <f>NALB!B67</f>
+        <v>date</v>
       </c>
       <c r="C40" s="12" t="str">
-        <f>NALB!C73</f>
-        <v>West Atlantic Skipjack</v>
+        <f>NALB!C67</f>
+        <v>Updated: July 7, 2025</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f>NALB!D73</f>
-        <v>Listao de l’Atlantique Ouest</v>
+        <f>NALB!D67</f>
+        <v>Mis à jour : 7 juillet 2025</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f>NALB!E73</f>
-        <v>Listado del Atlántico Oeste</v>
+        <f>NALB!E67</f>
+        <v>Actualizado: 7 de julio de 2025</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>229</v>
+      <c r="B41" s="12" t="str">
+        <f>NALB!B68</f>
+        <v>fin</v>
       </c>
       <c r="C41" s="12" t="str">
-        <f>NALB!C74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+        <f>NALB!C68</f>
+        <v>Copyright © 2025 ICCAT. All rights reserved</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f>NALB!D74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+        <f>NALB!D68</f>
+        <v>Copyright © 2025 ICCAT. Tous droits réservés</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f>NALB!E74</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+        <f>NALB!E68</f>
+        <v>Copyright © 2025 ICCAT. Todos los derechos reservados</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>225</v>
+      <c r="B42" s="12" t="str">
+        <f>NALB!B69</f>
+        <v>Title11</v>
       </c>
       <c r="C42" s="12" t="str">
-        <f>NALB!C75</f>
-        <v>Multi-stocks Tropical Tunas</v>
+        <f>NALB!C69</f>
+        <v>ICCAT MSE links</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f>NALB!D75</f>
-        <v>Thonidés tropicaux multi-stocks</v>
+        <f>NALB!D69</f>
+        <v>Liens ICCAT MSE</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f>NALB!E75</f>
-        <v>Túnidos tropicales multistocks</v>
+        <f>NALB!E69</f>
+        <v>Enlaces ICCAT MSE</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>228</v>
+      <c r="B43" s="12" t="str">
+        <f>NALB!B70</f>
+        <v>gen</v>
       </c>
       <c r="C43" s="12" t="str">
-        <f>NALB!C76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+        <f>NALB!C70</f>
+        <v>MSE Summary</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f>NALB!D76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+        <f>NALB!D70</f>
+        <v>Résumé de l’MSE</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f>NALB!E76</f>
-        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+        <f>NALB!E70</f>
+        <v>Resumen de MSE</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>226</v>
+      <c r="B44" s="12" t="str">
+        <f>NALB!B71</f>
+        <v>gen_link</v>
       </c>
       <c r="C44" s="12" t="str">
-        <f>NALB!C77</f>
-        <v>Other Species</v>
+        <f>NALB!C71</f>
+        <v>https://iccat.github.io/iccat-mse-web/</v>
       </c>
       <c r="D44" s="12" t="str">
-        <f>NALB!D77</f>
-        <v>Autres espèces</v>
+        <f>NALB!D71</f>
+        <v>https://iccat.github.io/iccat-mse-web/#fra</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f>NALB!E77</f>
-        <v>Otras especies</v>
+        <f>NALB!E71</f>
+        <v>https://iccat.github.io/iccat-mse-web/#esp</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>227</v>
+      <c r="B45" s="12" t="str">
+        <f>NALB!B72</f>
+        <v>sp1</v>
       </c>
       <c r="C45" s="12" t="str">
+        <f>NALB!C72</f>
+        <v>North Atlantic Albacore</v>
+      </c>
+      <c r="D45" s="12" t="str">
+        <f>NALB!D72</f>
+        <v>Germon de l’Atlantique Nord</v>
+      </c>
+      <c r="E45" s="12" t="str">
+        <f>NALB!E72</f>
+        <v>Atún blanco del Atlántico Norte</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="12" t="str">
+        <f>NALB!B73</f>
+        <v>sp1_link</v>
+      </c>
+      <c r="C46" s="12" t="str">
+        <f>NALB!C73</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#eng</v>
+      </c>
+      <c r="D46" s="12" t="str">
+        <f>NALB!D73</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#fra</v>
+      </c>
+      <c r="E46" s="12" t="str">
+        <f>NALB!E73</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NALB/NALB_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="12" t="str">
+        <f>NALB!B74</f>
+        <v>sp2</v>
+      </c>
+      <c r="C47" s="12" t="str">
+        <f>NALB!C74</f>
+        <v>Atlantic Bluefin Tuna</v>
+      </c>
+      <c r="D47" s="12" t="str">
+        <f>NALB!D74</f>
+        <v>Thon rouge de l’Atlantique</v>
+      </c>
+      <c r="E47" s="12" t="str">
+        <f>NALB!E74</f>
+        <v>Atún rojo del Atlántico</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="12" t="str">
+        <f>NALB!B75</f>
+        <v>sp2_link</v>
+      </c>
+      <c r="C48" s="12" t="str">
+        <f>NALB!C75</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#eng</v>
+      </c>
+      <c r="D48" s="12" t="str">
+        <f>NALB!D75</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#fra</v>
+      </c>
+      <c r="E48" s="12" t="str">
+        <f>NALB!E75</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/BFT/BFT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="12" t="str">
+        <f>NALB!B76</f>
+        <v>sp3</v>
+      </c>
+      <c r="C49" s="12" t="str">
+        <f>NALB!C76</f>
+        <v>North Atlantic Swordfish</v>
+      </c>
+      <c r="D49" s="12" t="str">
+        <f>NALB!D76</f>
+        <v>Espadon de l’Atlantique Nord</v>
+      </c>
+      <c r="E49" s="12" t="str">
+        <f>NALB!E76</f>
+        <v>Pez espada del Atlántico Norte</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="12" t="str">
+        <f>NALB!B77</f>
+        <v>sp3_link</v>
+      </c>
+      <c r="C50" s="12" t="str">
+        <f>NALB!C77</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#eng</v>
+      </c>
+      <c r="D50" s="12" t="str">
+        <f>NALB!D77</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#fra</v>
+      </c>
+      <c r="E50" s="12" t="str">
+        <f>NALB!E77</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/NSWO/NSWO_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="12" t="str">
+        <f>NALB!B78</f>
+        <v>sp4</v>
+      </c>
+      <c r="C51" s="12" t="str">
         <f>NALB!C78</f>
+        <v>West Atlantic Skipjack</v>
+      </c>
+      <c r="D51" s="12" t="str">
+        <f>NALB!D78</f>
+        <v>Listao de l’Atlantique Ouest</v>
+      </c>
+      <c r="E51" s="12" t="str">
+        <f>NALB!E78</f>
+        <v>Listado del Atlántico Oeste</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="12" t="str">
+        <f>NALB!B79</f>
+        <v>sp4_link</v>
+      </c>
+      <c r="C52" s="12" t="str">
+        <f>NALB!C79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#eng</v>
+      </c>
+      <c r="D52" s="12" t="str">
+        <f>NALB!D79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#fra</v>
+      </c>
+      <c r="E52" s="12" t="str">
+        <f>NALB!E79</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/WSKJ/WSKJ_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="12" t="str">
+        <f>NALB!B80</f>
+        <v>sp5</v>
+      </c>
+      <c r="C53" s="12" t="str">
+        <f>NALB!C80</f>
+        <v>Multi-stocks Tropical Tunas</v>
+      </c>
+      <c r="D53" s="12" t="str">
+        <f>NALB!D80</f>
+        <v>Thonidés tropicaux multi-stocks</v>
+      </c>
+      <c r="E53" s="12" t="str">
+        <f>NALB!E80</f>
+        <v>Túnidos tropicales multistocks</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="12" t="str">
+        <f>NALB!B81</f>
+        <v>sp5_link</v>
+      </c>
+      <c r="C54" s="12" t="str">
+        <f>NALB!C81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#eng</v>
+      </c>
+      <c r="D54" s="12" t="str">
+        <f>NALB!D81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#fra</v>
+      </c>
+      <c r="E54" s="12" t="str">
+        <f>NALB!E81</f>
+        <v>https://iccat.github.io/iccat-mse-web/species/multiTT/multiTT_MSE.html#spa</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12" t="str">
+        <f>NALB!B82</f>
+        <v>sp6</v>
+      </c>
+      <c r="C55" s="12" t="str">
+        <f>NALB!C82</f>
+        <v>Other Species</v>
+      </c>
+      <c r="D55" s="12" t="str">
+        <f>NALB!D82</f>
+        <v>Autres espèces</v>
+      </c>
+      <c r="E55" s="12" t="str">
+        <f>NALB!E82</f>
+        <v>Otras especies</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="12" t="str">
+        <f>NALB!B83</f>
+        <v>sp6_link</v>
+      </c>
+      <c r="C56" s="12" t="str">
+        <f>NALB!C83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#eng</v>
       </c>
-      <c r="D45" s="12" t="str">
-        <f>NALB!D78</f>
+      <c r="D56" s="12" t="str">
+        <f>NALB!D83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#fra</v>
       </c>
-      <c r="E45" s="12" t="str">
-        <f>NALB!E78</f>
+      <c r="E56" s="12" t="str">
+        <f>NALB!E83</f>
         <v>https://iccat.github.io/iccat-mse-web/species/others/Other_Species_MSE.html#spa</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="12" t="str">
+        <f>NALB!B84</f>
+        <v>ref_link</v>
+      </c>
+      <c r="C57" s="12" t="str">
+        <f>NALB!C84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="D57" s="12" t="str">
+        <f>NALB!D84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+      <c r="E57" s="12" t="str">
+        <f>NALB!E84</f>
+        <v>https://iccat.github.io/iccat-mse-web/htmls/mse_reference.html</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" location="other-species" xr:uid="{6B36319C-9F56-4730-9504-3CFCBC6FC710}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155E7905-67D2-47A3-AD7D-8F2411DBBD7B}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="7" max="9" width="22" customWidth="1"/>
+    <col min="10" max="12" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" t="s">
+        <v>846</v>
+      </c>
+      <c r="K1" t="s">
+        <v>847</v>
+      </c>
+      <c r="L1" t="s">
+        <v>848</v>
+      </c>
+      <c r="M1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="C1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H2" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2024</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>630</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F19" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F20" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C2">
+      <c r="F21" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="29">
         <v>2025</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D22" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="29">
+        <v>2025</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29">
+        <v>2015</v>
+      </c>
+      <c r="D29" t="s">
         <v>587</v>
       </c>
-      <c r="E2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="G2" t="s">
-        <v>612</v>
-      </c>
-      <c r="H2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2025</v>
-      </c>
-      <c r="D3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E3" t="s">
-        <v>610</v>
-      </c>
-      <c r="F3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2025</v>
-      </c>
-      <c r="D4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F4" t="s">
-        <v>611</v>
-      </c>
-      <c r="G4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2025</v>
-      </c>
-      <c r="D5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E5" t="s">
-        <v>610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C6">
-        <v>2015</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E29" t="s">
         <v>588</v>
       </c>
-      <c r="E6" t="s">
-        <v>589</v>
-      </c>
-      <c r="F6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7" t="s">
-        <v>588</v>
-      </c>
-      <c r="E7" t="s">
-        <v>589</v>
-      </c>
-      <c r="F7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-      <c r="D8" t="s">
-        <v>588</v>
-      </c>
-      <c r="E8" t="s">
-        <v>589</v>
-      </c>
-      <c r="F8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-      <c r="D9" t="s">
-        <v>588</v>
-      </c>
-      <c r="E9" t="s">
-        <v>589</v>
-      </c>
-      <c r="F9" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>2015</v>
-      </c>
-      <c r="D10" t="s">
-        <v>588</v>
-      </c>
-      <c r="E10" t="s">
-        <v>589</v>
-      </c>
-      <c r="F10" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2015</v>
-      </c>
-      <c r="D11" t="s">
-        <v>588</v>
-      </c>
-      <c r="E11" t="s">
-        <v>589</v>
-      </c>
-      <c r="F11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" t="s">
-        <v>606</v>
-      </c>
-      <c r="C12">
-        <v>2018</v>
-      </c>
-      <c r="D12" t="s">
-        <v>595</v>
-      </c>
-      <c r="E12" t="s">
-        <v>596</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" t="s">
-        <v>606</v>
-      </c>
-      <c r="C13" t="s">
-        <v>629</v>
-      </c>
-      <c r="D13" t="s">
-        <v>597</v>
-      </c>
-      <c r="E13" t="s">
-        <v>597</v>
-      </c>
-      <c r="F13" t="s">
-        <v>598</v>
-      </c>
-      <c r="G13" t="s">
-        <v>612</v>
-      </c>
-      <c r="H13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" t="s">
-        <v>606</v>
-      </c>
-      <c r="C14">
-        <v>2024</v>
-      </c>
-      <c r="D14" t="s">
-        <v>616</v>
-      </c>
-      <c r="E14" t="s">
-        <v>617</v>
-      </c>
-      <c r="F14" t="s">
-        <v>615</v>
-      </c>
-      <c r="G14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>606</v>
-      </c>
-      <c r="C15">
-        <v>2019</v>
-      </c>
-      <c r="D15" t="s">
-        <v>599</v>
-      </c>
-      <c r="E15" t="s">
-        <v>600</v>
-      </c>
-      <c r="F15" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" t="s">
-        <v>606</v>
-      </c>
-      <c r="C16" t="s">
-        <v>629</v>
-      </c>
-      <c r="D16" t="s">
-        <v>592</v>
-      </c>
-      <c r="E16" t="s">
-        <v>619</v>
-      </c>
-      <c r="F16" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E17" t="s">
-        <v>621</v>
-      </c>
-      <c r="F17" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" t="s">
-        <v>607</v>
-      </c>
-      <c r="C18">
-        <v>2019</v>
-      </c>
-      <c r="D18" t="s">
-        <v>602</v>
-      </c>
-      <c r="E18" t="s">
-        <v>603</v>
-      </c>
-      <c r="F18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2025</v>
-      </c>
-      <c r="D19" t="s">
-        <v>599</v>
-      </c>
-      <c r="E19" t="s">
-        <v>633</v>
-      </c>
-      <c r="F19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>2025</v>
-      </c>
-      <c r="D20" t="s">
-        <v>599</v>
-      </c>
-      <c r="E20" t="s">
-        <v>634</v>
-      </c>
-      <c r="F20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>2025</v>
-      </c>
-      <c r="D21" t="s">
-        <v>599</v>
-      </c>
-      <c r="E21" t="s">
-        <v>635</v>
-      </c>
-      <c r="F21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>2025</v>
-      </c>
-      <c r="D22" t="s">
-        <v>599</v>
-      </c>
-      <c r="E22" t="s">
-        <v>636</v>
-      </c>
-      <c r="F22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>2025</v>
-      </c>
-      <c r="D23" t="s">
-        <v>599</v>
-      </c>
-      <c r="E23" t="s">
-        <v>637</v>
-      </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" t="s">
-        <v>606</v>
-      </c>
-      <c r="C24">
-        <v>2018</v>
-      </c>
-      <c r="D24" t="s">
-        <v>604</v>
-      </c>
-      <c r="E24" t="s">
-        <v>605</v>
-      </c>
-      <c r="F24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" t="s">
-        <v>606</v>
-      </c>
-      <c r="C25">
-        <v>2018</v>
-      </c>
-      <c r="D25" t="s">
-        <v>590</v>
-      </c>
-      <c r="E25" t="s">
-        <v>591</v>
-      </c>
-      <c r="F25" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" t="s">
-        <v>606</v>
-      </c>
-      <c r="C26">
-        <v>2021</v>
-      </c>
-      <c r="D26" t="s">
-        <v>592</v>
-      </c>
-      <c r="E26" t="s">
-        <v>626</v>
-      </c>
-      <c r="F26" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" t="s">
-        <v>606</v>
-      </c>
-      <c r="C27" t="s">
-        <v>629</v>
-      </c>
-      <c r="D27" t="s">
-        <v>594</v>
-      </c>
-      <c r="E27" t="s">
-        <v>625</v>
-      </c>
-      <c r="F27" t="s">
-        <v>624</v>
+      <c r="F29" t="s">
+        <v>838</v>
+      </c>
+      <c r="G29" s="31" t="str">
+        <f>"https://iccat.github.io/iccat-mse-web/docs/"&amp;$A29&amp;"/"&amp;J29</f>
+        <v>https://iccat.github.io/iccat-mse-web/docs/GEN/2015-07-e.pdf</v>
+      </c>
+      <c r="H29" s="31" t="str">
+        <f>"https://iccat.github.io/iccat-mse-web/docs/"&amp;$A29&amp;"/"&amp;K29</f>
+        <v>https://iccat.github.io/iccat-mse-web/docs/GEN/2015-07-f.pdf</v>
+      </c>
+      <c r="I29" s="31" t="str">
+        <f>"https://iccat.github.io/iccat-mse-web/docs/"&amp;$A29&amp;"/"&amp;L29</f>
+        <v>https://iccat.github.io/iccat-mse-web/docs/GEN/2015-07-s.pdf</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{5D2B6256-7F7D-4CCF-BFF2-2C29B5D8F9BE}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{9EAE56B0-7603-44F5-A3D5-976D9CA02BDC}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{51F98D03-A29B-415A-9BA1-F4A7020D4270}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{7A4FFF6B-25AF-4586-A201-7310BD859A0B}"/>
-    <hyperlink ref="F21" r:id="rId5" xr:uid="{4F787327-FA86-412B-8719-109F0862EF77}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{FC1AC29B-F4B7-4BF0-B7FC-358C8DC00031}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{1C87EFB9-1A92-438F-8BC2-E394773044AD}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{01C695D8-5A2E-45E4-ABB0-CA10BF3D9F65}"/>
-    <hyperlink ref="F24" r:id="rId9" xr:uid="{70C7A92A-FA9C-40AD-8632-10C4AE7F3641}"/>
-    <hyperlink ref="F27" r:id="rId10" xr:uid="{03342AB6-A372-4CE3-983E-4118054BAC3F}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{D5C3FEAC-439F-4966-B4A0-BDF1F3F921BB}"/>
-    <hyperlink ref="F2" r:id="rId12" xr:uid="{70902EDC-99D9-4D7E-8ECC-39F3A481B697}"/>
-    <hyperlink ref="G3" r:id="rId13" xr:uid="{26B30762-D1DD-4C42-9560-334A02280457}"/>
-    <hyperlink ref="G4" r:id="rId14" xr:uid="{020FB553-9E1F-43C0-9EF8-E2D69BF5BF41}"/>
-    <hyperlink ref="G13" r:id="rId15" xr:uid="{77266BE2-34FB-4247-8989-E591EBA6F1F4}"/>
-    <hyperlink ref="H13" r:id="rId16" xr:uid="{DE089E37-0BDE-46D4-BD58-17F2CF69E227}"/>
-    <hyperlink ref="G14" r:id="rId17" xr:uid="{A39C303D-3620-4EAC-9470-C8C872CDF434}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{5D2B6256-7F7D-4CCF-BFF2-2C29B5D8F9BE}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{9EAE56B0-7603-44F5-A3D5-976D9CA02BDC}"/>
+    <hyperlink ref="G23" r:id="rId3" xr:uid="{51F98D03-A29B-415A-9BA1-F4A7020D4270}"/>
+    <hyperlink ref="G22" r:id="rId4" xr:uid="{7A4FFF6B-25AF-4586-A201-7310BD859A0B}"/>
+    <hyperlink ref="G21" r:id="rId5" xr:uid="{4F787327-FA86-412B-8719-109F0862EF77}"/>
+    <hyperlink ref="H2" r:id="rId6" xr:uid="{FC1AC29B-F4B7-4BF0-B7FC-358C8DC00031}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{1C87EFB9-1A92-438F-8BC2-E394773044AD}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{01C695D8-5A2E-45E4-ABB0-CA10BF3D9F65}"/>
+    <hyperlink ref="G24" r:id="rId9" xr:uid="{70C7A92A-FA9C-40AD-8632-10C4AE7F3641}"/>
+    <hyperlink ref="G27" r:id="rId10" xr:uid="{03342AB6-A372-4CE3-983E-4118054BAC3F}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{D5C3FEAC-439F-4966-B4A0-BDF1F3F921BB}"/>
+    <hyperlink ref="G2" r:id="rId12" xr:uid="{70902EDC-99D9-4D7E-8ECC-39F3A481B697}"/>
+    <hyperlink ref="H3" r:id="rId13" xr:uid="{26B30762-D1DD-4C42-9560-334A02280457}"/>
+    <hyperlink ref="H4" r:id="rId14" xr:uid="{020FB553-9E1F-43C0-9EF8-E2D69BF5BF41}"/>
+    <hyperlink ref="H13" r:id="rId15" xr:uid="{77266BE2-34FB-4247-8989-E591EBA6F1F4}"/>
+    <hyperlink ref="I13" r:id="rId16" xr:uid="{DE089E37-0BDE-46D4-BD58-17F2CF69E227}"/>
+    <hyperlink ref="H14" r:id="rId17" xr:uid="{A39C303D-3620-4EAC-9470-C8C872CDF434}"/>
+    <hyperlink ref="G28" r:id="rId18" xr:uid="{D2B5D23D-10C4-4AE0-AA94-63091E7D56A4}"/>
+    <hyperlink ref="H29" r:id="rId19" display="https://github.com/ICCAT/iccat-mse-web/blob/main/species/" xr:uid="{671EBEE3-E25B-4E8C-AEE4-2A8C433F0763}"/>
+    <hyperlink ref="G29" r:id="rId20" display="https://github.com/ICCAT/iccat-mse-web/blob/main/species/" xr:uid="{CD59FE9B-6236-4D16-B626-018CEACDFF0A}"/>
+    <hyperlink ref="I29" r:id="rId21" display="https://github.com/ICCAT/iccat-mse-web/blob/main/species/" xr:uid="{BBC3B399-25EA-4F88-A0C9-B83516E35508}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>